--- a/capiq_data/in_process_data/IQ304977.xlsx
+++ b/capiq_data/in_process_data/IQ304977.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A195BF23-D6F0-4776-AFF9-4EF4E4E9A258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049AE832-BACD-4646-BC36-745BA6397E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"189765ed-fe03-4213-aee3-986d0251e232"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"05f3238d-81f0-455d-a2e1-ecbdf6f84bc0"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40544</v>
+        <v>36890</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>666.3</v>
       </c>
       <c r="E2">
-        <v>1324.3</v>
+        <v>531.9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>239.3</v>
       </c>
       <c r="G2">
-        <v>4851.2</v>
+        <v>1094.3</v>
       </c>
       <c r="H2">
-        <v>15139.4</v>
+        <v>1884.8</v>
       </c>
       <c r="I2">
-        <v>990.7</v>
+        <v>239.8</v>
       </c>
       <c r="J2">
-        <v>3047.3</v>
+        <v>248.7</v>
       </c>
       <c r="K2">
-        <v>1.6</v>
+        <v>207.6</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2747.4</v>
+        <v>707.3</v>
       </c>
       <c r="O2">
-        <v>8069.7</v>
+        <v>1148.3</v>
       </c>
       <c r="P2">
-        <v>3465</v>
+        <v>462.4</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R2">
-        <v>40544</v>
+        <v>36890</v>
       </c>
       <c r="S2">
-        <v>36700</v>
+        <v>15500</v>
       </c>
       <c r="T2">
-        <v>7069.7</v>
+        <v>736.5</v>
       </c>
       <c r="U2">
-        <v>1742.8</v>
+        <v>93.6</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>115.7</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-19.8</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-93.3</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>158.69999999999999</v>
+        <v>46.6</v>
       </c>
       <c r="D3">
-        <v>2361.5</v>
+        <v>621.6</v>
       </c>
       <c r="E3">
-        <v>1547.8</v>
+        <v>530</v>
       </c>
       <c r="F3">
-        <v>883.7</v>
+        <v>229.1</v>
       </c>
       <c r="G3">
-        <v>5174.5</v>
+        <v>1137.0999999999999</v>
       </c>
       <c r="H3">
-        <v>15756</v>
+        <v>1953.4</v>
       </c>
       <c r="I3">
-        <v>1170.5999999999999</v>
+        <v>232.5</v>
       </c>
       <c r="J3">
-        <v>3036.9</v>
+        <v>240.4</v>
       </c>
       <c r="K3">
-        <v>143</v>
+        <v>279.60000000000002</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2992.1</v>
+        <v>766.4</v>
       </c>
       <c r="O3">
-        <v>8370.2000000000007</v>
+        <v>1194.3</v>
       </c>
       <c r="P3">
-        <v>3595.5</v>
+        <v>526.1</v>
       </c>
       <c r="Q3">
-        <v>138</v>
+        <v>17.8</v>
       </c>
       <c r="R3">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7385.8</v>
+        <v>759.1</v>
       </c>
       <c r="U3">
-        <v>1883.5</v>
+        <v>111.4</v>
       </c>
       <c r="V3">
-        <v>120.3</v>
+        <v>-21.2</v>
       </c>
       <c r="W3">
-        <v>-68.599999999999994</v>
+        <v>-19.7</v>
       </c>
       <c r="X3">
-        <v>126.2</v>
+        <v>58.1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,208 +1014,208 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>158.69999999999999</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>197.3</v>
+        <v>50.7</v>
       </c>
       <c r="D4">
-        <v>2603.3000000000002</v>
+        <v>671.6</v>
       </c>
       <c r="E4">
-        <v>1624.6</v>
+        <v>538</v>
       </c>
       <c r="F4">
-        <v>968.2</v>
+        <v>234.3</v>
       </c>
       <c r="G4">
-        <v>5339</v>
+        <v>1219.2</v>
       </c>
       <c r="H4">
-        <v>16033.5</v>
+        <v>2106.6</v>
       </c>
       <c r="I4">
-        <v>1267.9000000000001</v>
+        <v>237</v>
       </c>
       <c r="J4">
-        <v>2766.7</v>
+        <v>234.3</v>
       </c>
       <c r="K4">
-        <v>626.9</v>
+        <v>395.4</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-400.9</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N4">
-        <v>3404.7</v>
+        <v>886.2</v>
       </c>
       <c r="O4">
-        <v>8449.7000000000007</v>
+        <v>1309.2</v>
       </c>
       <c r="P4">
-        <v>3714.1</v>
+        <v>635.9</v>
       </c>
       <c r="Q4">
-        <v>33.6</v>
+        <v>50.8</v>
       </c>
       <c r="R4">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>7583.8</v>
+        <v>797.4</v>
       </c>
       <c r="U4">
-        <v>1915</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="V4">
-        <v>179.4</v>
+        <v>56</v>
       </c>
       <c r="W4">
-        <v>-68.900000000000006</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="X4">
-        <v>38.299999999999997</v>
+        <v>100.8</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-42.5</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>197.3</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>154.6</v>
+        <v>54.5</v>
       </c>
       <c r="D5">
-        <v>2619.6999999999998</v>
+        <v>671.4</v>
       </c>
       <c r="E5">
-        <v>1836.9</v>
+        <v>559.9</v>
       </c>
       <c r="F5">
-        <v>983.3</v>
+        <v>234.6</v>
       </c>
       <c r="G5">
-        <v>4737.3</v>
+        <v>1240.8</v>
       </c>
       <c r="H5">
-        <v>16483</v>
+        <v>2138.8000000000002</v>
       </c>
       <c r="I5">
-        <v>1387</v>
+        <v>237.8</v>
       </c>
       <c r="J5">
-        <v>2818</v>
+        <v>231.5</v>
       </c>
       <c r="K5">
-        <v>560.9</v>
+        <v>364.2</v>
       </c>
       <c r="L5">
-        <v>-68.8</v>
+        <v>-32.4</v>
       </c>
       <c r="M5">
-        <v>-1.8</v>
+        <v>-0.4</v>
       </c>
       <c r="N5">
-        <v>3810.3</v>
+        <v>890.1</v>
       </c>
       <c r="O5">
-        <v>9381.2999999999993</v>
+        <v>1308.7</v>
       </c>
       <c r="P5">
-        <v>3904</v>
+        <v>611.9</v>
       </c>
       <c r="Q5">
-        <v>-1064.2</v>
+        <v>-10</v>
       </c>
       <c r="R5">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>7101.7</v>
+        <v>830.1</v>
       </c>
       <c r="U5">
-        <v>851.9</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="V5">
-        <v>155.9</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="W5">
-        <v>-69.099999999999994</v>
+        <v>-20.6</v>
       </c>
       <c r="X5">
-        <v>-122.7</v>
+        <v>-59.8</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>154.6</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>164</v>
+        <v>6.5</v>
       </c>
       <c r="D6">
-        <v>1851</v>
+        <v>642</v>
       </c>
       <c r="E6">
-        <v>1403.3</v>
+        <v>453.7</v>
       </c>
       <c r="F6">
-        <v>654.6</v>
+        <v>213.1</v>
       </c>
       <c r="G6">
-        <v>5089.5</v>
+        <v>1144.5</v>
       </c>
       <c r="H6">
-        <v>15949</v>
+        <v>2055.6999999999998</v>
       </c>
       <c r="I6">
-        <v>1199.0999999999999</v>
+        <v>247.7</v>
       </c>
       <c r="J6">
-        <v>2925.8</v>
+        <v>196.8</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>177.3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,120 +1224,120 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3329.9</v>
+        <v>825.5</v>
       </c>
       <c r="O6">
-        <v>8882.2000000000007</v>
+        <v>1223.4000000000001</v>
       </c>
       <c r="P6">
-        <v>3544.5</v>
+        <v>494.2</v>
       </c>
       <c r="Q6">
-        <v>56.7</v>
+        <v>-37</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="S6">
-        <v>44700</v>
+        <v>14400</v>
       </c>
       <c r="T6">
-        <v>7066.8</v>
+        <v>832.3</v>
       </c>
       <c r="U6">
-        <v>906.9</v>
+        <v>115.2</v>
       </c>
       <c r="V6">
-        <v>543.29999999999995</v>
+        <v>117.7</v>
       </c>
       <c r="W6">
-        <v>-69.3</v>
+        <v>-20.6</v>
       </c>
       <c r="X6">
-        <v>-413.6</v>
+        <v>-121.9</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>164</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>121.8</v>
+        <v>48.9</v>
       </c>
       <c r="D7">
-        <v>2426.1</v>
+        <v>616.70000000000005</v>
       </c>
       <c r="E7">
-        <v>1725.8</v>
+        <v>566.79999999999995</v>
       </c>
       <c r="F7">
-        <v>914.3</v>
+        <v>215.5</v>
       </c>
       <c r="G7">
-        <v>4603.3</v>
+        <v>1143.0999999999999</v>
       </c>
       <c r="H7">
-        <v>16350.3</v>
+        <v>2063.9</v>
       </c>
       <c r="I7">
-        <v>1417.5</v>
+        <v>249.9</v>
       </c>
       <c r="J7">
-        <v>2914.2</v>
+        <v>194.8</v>
       </c>
       <c r="K7">
-        <v>197</v>
+        <v>181.5</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3437.1</v>
+        <v>809.9</v>
       </c>
       <c r="O7">
-        <v>9088.7000000000007</v>
+        <v>1187.0999999999999</v>
       </c>
       <c r="P7">
-        <v>3682.4</v>
+        <v>496.2</v>
       </c>
       <c r="Q7">
-        <v>-23.3</v>
+        <v>-5.3</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7261.6</v>
+        <v>876.8</v>
       </c>
       <c r="U7">
-        <v>883.6</v>
+        <v>109.9</v>
       </c>
       <c r="V7">
-        <v>-32.299999999999997</v>
+        <v>20.5</v>
       </c>
       <c r="W7">
-        <v>-69.900000000000006</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="X7">
-        <v>158.9</v>
+        <v>-7.5</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,81 +1346,81 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>121.8</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>154.80000000000001</v>
+        <v>63.3</v>
       </c>
       <c r="D8">
-        <v>2545.1</v>
+        <v>649.1</v>
       </c>
       <c r="E8">
-        <v>1675.8</v>
+        <v>560</v>
       </c>
       <c r="F8">
-        <v>929.2</v>
+        <v>223</v>
       </c>
       <c r="G8">
-        <v>4305.8</v>
+        <v>1271.4000000000001</v>
       </c>
       <c r="H8">
-        <v>16350.4</v>
+        <v>2165.5</v>
       </c>
       <c r="I8">
-        <v>1437</v>
+        <v>261.89999999999998</v>
       </c>
       <c r="J8">
-        <v>2924.5</v>
+        <v>208.1</v>
       </c>
       <c r="K8">
-        <v>789.2</v>
+        <v>152.1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-30.4</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3771.1</v>
+        <v>826.1</v>
       </c>
       <c r="O8">
-        <v>9458.2000000000007</v>
+        <v>1223.8</v>
       </c>
       <c r="P8">
-        <v>3975.4</v>
+        <v>478.7</v>
       </c>
       <c r="Q8">
-        <v>-305.8</v>
+        <v>29.7</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6892.2</v>
+        <v>941.7</v>
       </c>
       <c r="U8">
-        <v>577.79999999999995</v>
+        <v>139.6</v>
       </c>
       <c r="V8">
-        <v>299.2</v>
+        <v>84</v>
       </c>
       <c r="W8">
-        <v>-68.900000000000006</v>
+        <v>-20.5</v>
       </c>
       <c r="X8">
-        <v>5.6</v>
+        <v>-47.5</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,81 +1429,81 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>154.80000000000001</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>115.2</v>
+        <v>54.7</v>
       </c>
       <c r="D9">
-        <v>2517.1999999999998</v>
+        <v>665.5</v>
       </c>
       <c r="E9">
-        <v>1829.9</v>
+        <v>578.5</v>
       </c>
       <c r="F9">
-        <v>923.9</v>
+        <v>209.9</v>
       </c>
       <c r="G9">
-        <v>4753.8999999999996</v>
+        <v>1190.9000000000001</v>
       </c>
       <c r="H9">
-        <v>17114.2</v>
+        <v>2100.9</v>
       </c>
       <c r="I9">
-        <v>1489.2</v>
+        <v>259.8</v>
       </c>
       <c r="J9">
-        <v>2728.9</v>
+        <v>204.5</v>
       </c>
       <c r="K9">
-        <v>1336.7</v>
+        <v>116.4</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="M9">
-        <v>-900.9</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>4670.3</v>
+        <v>750.6</v>
       </c>
       <c r="O9">
-        <v>9850.2999999999993</v>
+        <v>1126.4000000000001</v>
       </c>
       <c r="P9">
-        <v>4319.7</v>
+        <v>430.2</v>
       </c>
       <c r="Q9">
-        <v>191.7</v>
+        <v>-7</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7263.9</v>
+        <v>974.5</v>
       </c>
       <c r="U9">
-        <v>769.5</v>
+        <v>132.6</v>
       </c>
       <c r="V9">
-        <v>151.19999999999999</v>
+        <v>103.9</v>
       </c>
       <c r="W9">
-        <v>-82.5</v>
+        <v>-21.9</v>
       </c>
       <c r="X9">
-        <v>209</v>
+        <v>-64.599999999999994</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,12 +1512,12 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>115.2</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -1409,25 +1529,25 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1388.7</v>
+        <v>469.5</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4111.3</v>
+        <v>1211.2</v>
       </c>
       <c r="H10">
-        <v>15844</v>
+        <v>2418.1999999999998</v>
       </c>
       <c r="I10">
-        <v>1345.9</v>
+        <v>238.9</v>
       </c>
       <c r="J10">
-        <v>3531.1</v>
+        <v>563.20000000000005</v>
       </c>
       <c r="K10">
-        <v>1.1000000000000001</v>
+        <v>140.1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,28 +1556,28 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3074.7</v>
+        <v>682</v>
       </c>
       <c r="O10">
-        <v>9116.9</v>
+        <v>1434.4</v>
       </c>
       <c r="P10">
-        <v>3545.9</v>
+        <v>711.9</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="S10">
-        <v>45327</v>
+        <v>14900</v>
       </c>
       <c r="T10">
-        <v>6727.1</v>
+        <v>983.8</v>
       </c>
       <c r="U10">
-        <v>716</v>
+        <v>121.7</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1480,76 +1600,76 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>81.099999999999994</v>
+        <v>19.2</v>
       </c>
       <c r="D11">
-        <v>2475.1999999999998</v>
+        <v>632.20000000000005</v>
       </c>
       <c r="E11">
-        <v>1782.7</v>
+        <v>521.6</v>
       </c>
       <c r="F11">
-        <v>921.8</v>
+        <v>217.4</v>
       </c>
       <c r="G11">
-        <v>4425.8999999999996</v>
+        <v>1226.2</v>
       </c>
       <c r="H11">
-        <v>16897.5</v>
+        <v>2439.1999999999998</v>
       </c>
       <c r="I11">
-        <v>1514.8</v>
+        <v>250</v>
       </c>
       <c r="J11">
-        <v>3526.9</v>
+        <v>546.6</v>
       </c>
       <c r="K11">
-        <v>1331.9</v>
+        <v>169.8</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="N11">
-        <v>4132.6000000000004</v>
+        <v>722.6</v>
       </c>
       <c r="O11">
-        <v>10238.4</v>
+        <v>1454.3</v>
       </c>
       <c r="P11">
-        <v>4871.5</v>
+        <v>745.3</v>
       </c>
       <c r="Q11">
-        <v>-158.5</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6659.1</v>
+        <v>984.9</v>
       </c>
       <c r="U11">
-        <v>557.5</v>
+        <v>156</v>
       </c>
       <c r="V11">
-        <v>-147.5</v>
+        <v>51.7</v>
       </c>
       <c r="W11">
-        <v>-79.099999999999994</v>
+        <v>-22.2</v>
       </c>
       <c r="X11">
-        <v>962.1</v>
+        <v>8.5</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,81 +1678,81 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>81.099999999999994</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>187.1</v>
+        <v>12.4</v>
       </c>
       <c r="D12">
-        <v>2858.2</v>
+        <v>652.6</v>
       </c>
       <c r="E12">
-        <v>1794.3</v>
+        <v>516.1</v>
       </c>
       <c r="F12">
-        <v>1013.6</v>
+        <v>220.4</v>
       </c>
       <c r="G12">
-        <v>4256.8999999999996</v>
+        <v>1199.9000000000001</v>
       </c>
       <c r="H12">
-        <v>16702.900000000001</v>
+        <v>2470.5</v>
       </c>
       <c r="I12">
-        <v>1558.7</v>
+        <v>248.2</v>
       </c>
       <c r="J12">
-        <v>3518.7</v>
+        <v>635</v>
       </c>
       <c r="K12">
-        <v>1277.5999999999999</v>
+        <v>208.7</v>
       </c>
       <c r="L12">
-        <v>-60.1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>-0.5</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="N12">
-        <v>3929.9</v>
+        <v>793.7</v>
       </c>
       <c r="O12">
-        <v>9978.4</v>
+        <v>1693.3</v>
       </c>
       <c r="P12">
-        <v>4811.5</v>
+        <v>903.6</v>
       </c>
       <c r="Q12">
-        <v>4.2</v>
+        <v>-28.3</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6724.5</v>
+        <v>777.2</v>
       </c>
       <c r="U12">
-        <v>561.70000000000005</v>
+        <v>127.7</v>
       </c>
       <c r="V12">
-        <v>184.2</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="W12">
-        <v>-78.400000000000006</v>
+        <v>-21.8</v>
       </c>
       <c r="X12">
-        <v>-120.3</v>
+        <v>-83.8</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,81 +1761,81 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>187.1</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>166</v>
+        <v>41.7</v>
       </c>
       <c r="D13">
-        <v>2758.3</v>
+        <v>665.6</v>
       </c>
       <c r="E13">
-        <v>1936.4</v>
+        <v>552</v>
       </c>
       <c r="F13">
-        <v>992.9</v>
+        <v>227.4</v>
       </c>
       <c r="G13">
-        <v>4431.2</v>
+        <v>1255.2</v>
       </c>
       <c r="H13">
-        <v>17023.7</v>
+        <v>2470.1</v>
       </c>
       <c r="I13">
-        <v>1625.9</v>
+        <v>258.7</v>
       </c>
       <c r="J13">
-        <v>3517.6</v>
+        <v>622.70000000000005</v>
       </c>
       <c r="K13">
-        <v>1206.5</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="L13">
-        <v>-70.900000000000006</v>
+        <v>-76.2</v>
       </c>
       <c r="M13">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="N13">
-        <v>3948.8</v>
+        <v>777.2</v>
       </c>
       <c r="O13">
-        <v>10005.4</v>
+        <v>1662.1</v>
       </c>
       <c r="P13">
-        <v>4739.6000000000004</v>
+        <v>826.4</v>
       </c>
       <c r="Q13">
-        <v>-92.6</v>
+        <v>41.9</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>7018.3</v>
+        <v>808</v>
       </c>
       <c r="U13">
-        <v>469.1</v>
+        <v>169.6</v>
       </c>
       <c r="V13">
-        <v>99.6</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="W13">
-        <v>-77.5</v>
+        <v>-21</v>
       </c>
       <c r="X13">
-        <v>-106.5</v>
+        <v>-97.9</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>166</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41636</v>
+        <v>37989</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>580.20000000000005</v>
       </c>
       <c r="E14">
-        <v>1442.7</v>
+        <v>436.1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>209.4</v>
       </c>
       <c r="G14">
-        <v>4016.6</v>
+        <v>1236.0999999999999</v>
       </c>
       <c r="H14">
-        <v>16535.099999999999</v>
+        <v>2423.8000000000002</v>
       </c>
       <c r="I14">
-        <v>1552.9</v>
+        <v>222.2</v>
       </c>
       <c r="J14">
-        <v>3938.7</v>
+        <v>513.6</v>
       </c>
       <c r="K14">
-        <v>392.7</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3236</v>
+        <v>756.7</v>
       </c>
       <c r="O14">
-        <v>9654.6</v>
+        <v>1554.7</v>
       </c>
       <c r="P14">
-        <v>4344.6000000000004</v>
+        <v>671.3</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="R14">
-        <v>41636</v>
+        <v>37989</v>
       </c>
       <c r="S14">
-        <v>50700</v>
+        <v>13500</v>
       </c>
       <c r="T14">
-        <v>6880.5</v>
+        <v>869.1</v>
       </c>
       <c r="U14">
-        <v>496.2</v>
+        <v>204.4</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>197.7</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>-21.1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>-165.5</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38080</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>161.9</v>
+        <v>153.5</v>
       </c>
       <c r="D15">
-        <v>2617.1</v>
+        <v>734.8</v>
       </c>
       <c r="E15">
-        <v>1795.8</v>
+        <v>572.9</v>
       </c>
       <c r="F15">
-        <v>956.4</v>
+        <v>267.89999999999998</v>
       </c>
       <c r="G15">
-        <v>4271.2</v>
+        <v>1275.2</v>
       </c>
       <c r="H15">
-        <v>16832.900000000001</v>
+        <v>2808.8</v>
       </c>
       <c r="I15">
-        <v>1581.8</v>
+        <v>281.3</v>
       </c>
       <c r="J15">
-        <v>3903.2</v>
+        <v>547.29999999999995</v>
       </c>
       <c r="K15">
-        <v>675</v>
+        <v>202.3</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.3</v>
+        <v>-127.3</v>
       </c>
       <c r="N15">
-        <v>3455.8</v>
+        <v>940.2</v>
       </c>
       <c r="O15">
-        <v>9853.6</v>
+        <v>1804.7</v>
       </c>
       <c r="P15">
-        <v>4589.8</v>
+        <v>787.4</v>
       </c>
       <c r="Q15">
-        <v>-63.6</v>
+        <v>-11.9</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38080</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6979.3</v>
+        <v>1004.1</v>
       </c>
       <c r="U15">
-        <v>432.6</v>
+        <v>192.5</v>
       </c>
       <c r="V15">
-        <v>-152</v>
+        <v>52.1</v>
       </c>
       <c r="W15">
-        <v>-80.7</v>
+        <v>-21.2</v>
       </c>
       <c r="X15">
-        <v>161.19999999999999</v>
+        <v>35.9</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,81 +2010,81 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>161.9</v>
+        <v>153.5</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38171</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>216.5</v>
+        <v>61.4</v>
       </c>
       <c r="D16">
-        <v>2860.1</v>
+        <v>753.9</v>
       </c>
       <c r="E16">
-        <v>1788.8</v>
+        <v>571.70000000000005</v>
       </c>
       <c r="F16">
-        <v>1048.5999999999999</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="G16">
-        <v>4400.6000000000004</v>
+        <v>1291.5</v>
       </c>
       <c r="H16">
-        <v>16958.8</v>
+        <v>2793.9</v>
       </c>
       <c r="I16">
-        <v>1701.2</v>
+        <v>285</v>
       </c>
       <c r="J16">
-        <v>3907.6</v>
+        <v>516.6</v>
       </c>
       <c r="K16">
-        <v>475.3</v>
+        <v>213.7</v>
       </c>
       <c r="L16">
-        <v>-199.7</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.3</v>
+        <v>-9.5</v>
       </c>
       <c r="N16">
-        <v>3387</v>
+        <v>931.9</v>
       </c>
       <c r="O16">
-        <v>9821.5</v>
+        <v>1752.8</v>
       </c>
       <c r="P16">
-        <v>4395</v>
+        <v>787.8</v>
       </c>
       <c r="Q16">
-        <v>83.1</v>
+        <v>43.2</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38171</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>7137.3</v>
+        <v>1041.0999999999999</v>
       </c>
       <c r="U16">
-        <v>515.70000000000005</v>
+        <v>235.7</v>
       </c>
       <c r="V16">
-        <v>437.2</v>
+        <v>90.9</v>
       </c>
       <c r="W16">
-        <v>-78.400000000000006</v>
+        <v>-21.2</v>
       </c>
       <c r="X16">
-        <v>-268.3</v>
+        <v>-12.3</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,81 +2093,81 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>216.5</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38262</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>236.7</v>
+        <v>63.9</v>
       </c>
       <c r="D17">
-        <v>2878.9</v>
+        <v>751.8</v>
       </c>
       <c r="E17">
-        <v>1861.1</v>
+        <v>618.6</v>
       </c>
       <c r="F17">
-        <v>1046.5999999999999</v>
+        <v>277.8</v>
       </c>
       <c r="G17">
-        <v>4452.1000000000004</v>
+        <v>1378.7</v>
       </c>
       <c r="H17">
-        <v>16733.8</v>
+        <v>2848.2</v>
       </c>
       <c r="I17">
-        <v>1713.5</v>
+        <v>290</v>
       </c>
       <c r="J17">
-        <v>3910.9</v>
+        <v>489.8</v>
       </c>
       <c r="K17">
-        <v>426.5</v>
+        <v>197.2</v>
       </c>
       <c r="L17">
-        <v>-48.8</v>
+        <v>-16.8</v>
       </c>
       <c r="M17">
-        <v>-0.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="N17">
-        <v>3387.3</v>
+        <v>932.9</v>
       </c>
       <c r="O17">
-        <v>9689.7999999999993</v>
+        <v>1753</v>
       </c>
       <c r="P17">
-        <v>4346.8</v>
+        <v>742.1</v>
       </c>
       <c r="Q17">
-        <v>-28.9</v>
+        <v>20.6</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38262</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>7044</v>
+        <v>1095.2</v>
       </c>
       <c r="U17">
-        <v>486.8</v>
+        <v>256.3</v>
       </c>
       <c r="V17">
-        <v>249.1</v>
+        <v>99</v>
       </c>
       <c r="W17">
-        <v>-81.400000000000006</v>
+        <v>-23</v>
       </c>
       <c r="X17">
-        <v>-113.1</v>
+        <v>-45.7</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,12 +2176,12 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>236.7</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42007</v>
+        <v>38353</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -2073,25 +2193,25 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1280.3</v>
+        <v>532.70000000000005</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3948.8</v>
+        <v>1374.9</v>
       </c>
       <c r="H18">
-        <v>15849.1</v>
+        <v>2850.6</v>
       </c>
       <c r="I18">
-        <v>1579.2</v>
+        <v>297.89999999999998</v>
       </c>
       <c r="J18">
-        <v>3893.2</v>
+        <v>481.8</v>
       </c>
       <c r="K18">
-        <v>1.6</v>
+        <v>47.1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,28 +2220,28 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2832</v>
+        <v>821.1</v>
       </c>
       <c r="O18">
-        <v>9337.2000000000007</v>
+        <v>1613.9</v>
       </c>
       <c r="P18">
-        <v>3901.8</v>
+        <v>584.29999999999995</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>42007</v>
+        <v>38353</v>
       </c>
       <c r="S18">
-        <v>50400</v>
+        <v>14100</v>
       </c>
       <c r="T18">
-        <v>6511.9</v>
+        <v>1236.7</v>
       </c>
       <c r="U18">
-        <v>496.6</v>
+        <v>250</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2144,76 +2264,76 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42098</v>
+        <v>38444</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>162.30000000000001</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="D19">
-        <v>2630</v>
+        <v>796.3</v>
       </c>
       <c r="E19">
-        <v>1612.8</v>
+        <v>619.6</v>
       </c>
       <c r="F19">
-        <v>973.6</v>
+        <v>287</v>
       </c>
       <c r="G19">
-        <v>4324.7</v>
+        <v>1434.6</v>
       </c>
       <c r="H19">
-        <v>15943.7</v>
+        <v>2952.8</v>
       </c>
       <c r="I19">
-        <v>1674.8</v>
+        <v>289.10000000000002</v>
       </c>
       <c r="J19">
-        <v>3906.9</v>
+        <v>474.5</v>
       </c>
       <c r="K19">
-        <v>600.4</v>
+        <v>158.4</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-0.3</v>
+        <v>-7.2</v>
       </c>
       <c r="N19">
-        <v>3446.8</v>
+        <v>886.7</v>
       </c>
       <c r="O19">
-        <v>10246.5</v>
+        <v>1685.3</v>
       </c>
       <c r="P19">
-        <v>4515.8</v>
+        <v>687.2</v>
       </c>
       <c r="Q19">
-        <v>-61.1</v>
+        <v>60.5</v>
       </c>
       <c r="R19">
-        <v>42098</v>
+        <v>38444</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5697.2</v>
+        <v>1267.5</v>
       </c>
       <c r="U19">
-        <v>435.5</v>
+        <v>310.5</v>
       </c>
       <c r="V19">
-        <v>-197.5</v>
+        <v>60.6</v>
       </c>
       <c r="W19">
-        <v>-82.7</v>
+        <v>-23.2</v>
       </c>
       <c r="X19">
-        <v>206.6</v>
+        <v>82.7</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,81 +2342,81 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>162.30000000000001</v>
+        <v>66.599999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42189</v>
+        <v>38535</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>227.2</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="D20">
-        <v>2866.9</v>
+        <v>814.7</v>
       </c>
       <c r="E20">
-        <v>1645.9</v>
+        <v>622.29999999999995</v>
       </c>
       <c r="F20">
-        <v>1057.2</v>
+        <v>300.7</v>
       </c>
       <c r="G20">
-        <v>4344.8</v>
+        <v>1467.3</v>
       </c>
       <c r="H20">
-        <v>15998.8</v>
+        <v>3003.6</v>
       </c>
       <c r="I20">
-        <v>1764.6</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="J20">
-        <v>3858.2</v>
+        <v>468.1</v>
       </c>
       <c r="K20">
-        <v>420.2</v>
+        <v>193.5</v>
       </c>
       <c r="L20">
-        <v>-180.2</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>-0.3</v>
+        <v>-7.4</v>
       </c>
       <c r="N20">
-        <v>3385</v>
+        <v>932.8</v>
       </c>
       <c r="O20">
-        <v>10132.299999999999</v>
+        <v>1711.1</v>
       </c>
       <c r="P20">
-        <v>4299.8999999999996</v>
+        <v>714.3</v>
       </c>
       <c r="Q20">
-        <v>-43.6</v>
+        <v>15.1</v>
       </c>
       <c r="R20">
-        <v>42189</v>
+        <v>38535</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>5866.5</v>
+        <v>1292.5</v>
       </c>
       <c r="U20">
-        <v>391.9</v>
+        <v>325.60000000000002</v>
       </c>
       <c r="V20">
-        <v>312.60000000000002</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="W20">
-        <v>-76.8</v>
+        <v>-23.2</v>
       </c>
       <c r="X20">
-        <v>-329.8</v>
+        <v>10.7</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,81 +2425,81 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>227.2</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>228.7</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="D21">
-        <v>2829.5</v>
+        <v>834.9</v>
       </c>
       <c r="E21">
-        <v>1690.9</v>
+        <v>652.9</v>
       </c>
       <c r="F21">
-        <v>1027</v>
+        <v>304.3</v>
       </c>
       <c r="G21">
-        <v>4273.3</v>
+        <v>1513.1</v>
       </c>
       <c r="H21">
-        <v>15870.9</v>
+        <v>3053.4</v>
       </c>
       <c r="I21">
-        <v>1718.9</v>
+        <v>319</v>
       </c>
       <c r="J21">
-        <v>3889</v>
+        <v>467.1</v>
       </c>
       <c r="K21">
-        <v>452</v>
+        <v>159.19999999999999</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-29.8</v>
       </c>
       <c r="M21">
-        <v>-15.5</v>
+        <v>-7.2</v>
       </c>
       <c r="N21">
-        <v>3422.3</v>
+        <v>893.4</v>
       </c>
       <c r="O21">
-        <v>10150.299999999999</v>
+        <v>1675.2</v>
       </c>
       <c r="P21">
-        <v>4349</v>
+        <v>678.7</v>
       </c>
       <c r="Q21">
-        <v>-98.6</v>
+        <v>12.5</v>
       </c>
       <c r="R21">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>5720.6</v>
+        <v>1378.2</v>
       </c>
       <c r="U21">
-        <v>293.3</v>
+        <v>338.1</v>
       </c>
       <c r="V21">
-        <v>239</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="W21">
-        <v>-79.7</v>
+        <v>-24.2</v>
       </c>
       <c r="X21">
-        <v>-250.2</v>
+        <v>-42.7</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>228.7</v>
+        <v>76.900000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42371</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>265.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>2845.4</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1222.7</v>
+        <v>565.70000000000005</v>
       </c>
       <c r="F22">
-        <v>1014.2</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>3662.1</v>
+        <v>1825.6</v>
       </c>
       <c r="H22">
-        <v>15127.8</v>
+        <v>3545.1</v>
       </c>
       <c r="I22">
-        <v>1533.1</v>
+        <v>327.7</v>
       </c>
       <c r="J22">
-        <v>3838.4</v>
+        <v>895.3</v>
       </c>
       <c r="K22">
-        <v>2.5</v>
+        <v>148.1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2802.6</v>
+        <v>875.3</v>
       </c>
       <c r="O22">
-        <v>9268.6</v>
+        <v>2100.1999999999998</v>
       </c>
       <c r="P22">
-        <v>3848.5</v>
+        <v>1065.5</v>
       </c>
       <c r="Q22">
-        <v>172.1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42371</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>51250</v>
+        <v>15800</v>
       </c>
       <c r="T22">
-        <v>5859.2</v>
+        <v>1444.9</v>
       </c>
       <c r="U22">
-        <v>465.4</v>
+        <v>657.8</v>
       </c>
       <c r="V22">
-        <v>828.2</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-80.7</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-502.2</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>265.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>189.4</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D23">
-        <v>2672.1</v>
+        <v>968.7</v>
       </c>
       <c r="E23">
-        <v>1592.8</v>
+        <v>782.4</v>
       </c>
       <c r="F23">
-        <v>977.6</v>
+        <v>350.9</v>
       </c>
       <c r="G23">
-        <v>4016.8</v>
+        <v>1629.7</v>
       </c>
       <c r="H23">
-        <v>15607.4</v>
+        <v>3797.9</v>
       </c>
       <c r="I23">
-        <v>1662.3</v>
+        <v>411</v>
       </c>
       <c r="J23">
-        <v>3889.9</v>
+        <v>821.3</v>
       </c>
       <c r="K23">
-        <v>484</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N23">
-        <v>3696.6</v>
+        <v>1276.2</v>
       </c>
       <c r="O23">
-        <v>9892.2000000000007</v>
+        <v>2470.9</v>
       </c>
       <c r="P23">
-        <v>4383.3</v>
+        <v>1222</v>
       </c>
       <c r="Q23">
-        <v>-113.2</v>
+        <v>-452.9</v>
       </c>
       <c r="R23">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5715.2</v>
+        <v>1327</v>
       </c>
       <c r="U23">
-        <v>352.2</v>
+        <v>204.9</v>
       </c>
       <c r="V23">
-        <v>-93.1</v>
+        <v>85.2</v>
       </c>
       <c r="W23">
-        <v>-79.599999999999994</v>
+        <v>-23.8</v>
       </c>
       <c r="X23">
-        <v>44.5</v>
+        <v>-30.7</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,81 +2674,81 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>189.4</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>271.5</v>
+        <v>74.7</v>
       </c>
       <c r="D24">
-        <v>2932.4</v>
+        <v>1017.9</v>
       </c>
       <c r="E24">
-        <v>1571</v>
+        <v>751.2</v>
       </c>
       <c r="F24">
-        <v>1128.9000000000001</v>
+        <v>379.7</v>
       </c>
       <c r="G24">
-        <v>4293.2</v>
+        <v>1613.3</v>
       </c>
       <c r="H24">
-        <v>15740.8</v>
+        <v>3845.3</v>
       </c>
       <c r="I24">
-        <v>1739</v>
+        <v>420.1</v>
       </c>
       <c r="J24">
-        <v>3909.2</v>
+        <v>821</v>
       </c>
       <c r="K24">
-        <v>351.1</v>
+        <v>263.89999999999998</v>
       </c>
       <c r="L24">
-        <v>-132.9</v>
+        <v>-36.5</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="N24">
-        <v>3709.9</v>
+        <v>1199.0999999999999</v>
       </c>
       <c r="O24">
-        <v>9890.7000000000007</v>
+        <v>2438.3000000000002</v>
       </c>
       <c r="P24">
-        <v>4267.1000000000004</v>
+        <v>1166.0999999999999</v>
       </c>
       <c r="Q24">
-        <v>216</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R24">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5850.1</v>
+        <v>1407</v>
       </c>
       <c r="U24">
-        <v>568.20000000000005</v>
+        <v>207.1</v>
       </c>
       <c r="V24">
-        <v>496.4</v>
+        <v>117.3</v>
       </c>
       <c r="W24">
-        <v>-79.8</v>
+        <v>-23.5</v>
       </c>
       <c r="X24">
-        <v>-165.9</v>
+        <v>-74.599999999999994</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,81 +2757,81 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>271.5</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>248.9</v>
+        <v>90.5</v>
       </c>
       <c r="D25">
-        <v>2882</v>
+        <v>1012.7</v>
       </c>
       <c r="E25">
-        <v>1730.2</v>
+        <v>763.8</v>
       </c>
       <c r="F25">
-        <v>1084.0999999999999</v>
+        <v>377.8</v>
       </c>
       <c r="G25">
-        <v>4262.1000000000004</v>
+        <v>1725.5</v>
       </c>
       <c r="H25">
-        <v>15720.7</v>
+        <v>4037.9</v>
       </c>
       <c r="I25">
-        <v>1741.2</v>
+        <v>434.8</v>
       </c>
       <c r="J25">
-        <v>3917.3</v>
+        <v>823.3</v>
       </c>
       <c r="K25">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="L25">
-        <v>-255.9</v>
+        <v>-24.2</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="N25">
-        <v>3463</v>
+        <v>1265</v>
       </c>
       <c r="O25">
-        <v>9639.5</v>
+        <v>2536.8000000000002</v>
       </c>
       <c r="P25">
-        <v>4019.5</v>
+        <v>1145.7</v>
       </c>
       <c r="Q25">
-        <v>-147.4</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="R25">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>6081.2</v>
+        <v>1501.1</v>
       </c>
       <c r="U25">
-        <v>420.8</v>
+        <v>241.3</v>
       </c>
       <c r="V25">
-        <v>246.7</v>
+        <v>117.3</v>
       </c>
       <c r="W25">
-        <v>-84.5</v>
+        <v>-24.3</v>
       </c>
       <c r="X25">
-        <v>-325.39999999999998</v>
+        <v>-37.6</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>248.9</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>255.5</v>
+        <v>86.6</v>
       </c>
       <c r="D26">
-        <v>2920.4</v>
+        <v>1019.3</v>
       </c>
       <c r="E26">
-        <v>1199.8</v>
+        <v>702.2</v>
       </c>
       <c r="F26">
-        <v>1076.5999999999999</v>
+        <v>393.7</v>
       </c>
       <c r="G26">
-        <v>4788.5</v>
+        <v>1638.5</v>
       </c>
       <c r="H26">
-        <v>15634.9</v>
+        <v>3935.4</v>
       </c>
       <c r="I26">
-        <v>1640.4</v>
+        <v>445.2</v>
       </c>
       <c r="J26">
-        <v>3862.6</v>
+        <v>679.2</v>
       </c>
       <c r="K26">
-        <v>4.3</v>
+        <v>89.7</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2807.5</v>
+        <v>1251.0999999999999</v>
       </c>
       <c r="O26">
-        <v>9261.2999999999993</v>
+        <v>2383.4</v>
       </c>
       <c r="P26">
-        <v>3874.7</v>
+        <v>999.2</v>
       </c>
       <c r="Q26">
-        <v>711</v>
+        <v>-64.7</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="S26">
-        <v>54023</v>
+        <v>17600</v>
       </c>
       <c r="T26">
-        <v>6373.6</v>
+        <v>1552</v>
       </c>
       <c r="U26">
-        <v>1131.8</v>
+        <v>176.6</v>
       </c>
       <c r="V26">
-        <v>835.2</v>
+        <v>119.3</v>
       </c>
       <c r="W26">
-        <v>-87</v>
+        <v>-24.5</v>
       </c>
       <c r="X26">
-        <v>13.7</v>
+        <v>-155.1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,42 +2923,42 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>255.5</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>393.7</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="D27">
-        <v>2856.3</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="E27">
-        <v>1728</v>
+        <v>803.4</v>
       </c>
       <c r="F27">
-        <v>1072.8</v>
+        <v>386.2</v>
       </c>
       <c r="G27">
-        <v>4368.3</v>
+        <v>1741.6</v>
       </c>
       <c r="H27">
-        <v>18662.099999999999</v>
+        <v>4640.3999999999996</v>
       </c>
       <c r="I27">
-        <v>1928.8</v>
+        <v>462.4</v>
       </c>
       <c r="J27">
-        <v>3859</v>
+        <v>1209.2</v>
       </c>
       <c r="K27">
-        <v>1159.3</v>
+        <v>175</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,37 +2967,37 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>4214.3999999999996</v>
+        <v>1295.9000000000001</v>
       </c>
       <c r="O27">
-        <v>11844</v>
+        <v>3074.2</v>
       </c>
       <c r="P27">
-        <v>5026.3999999999996</v>
+        <v>1541.3</v>
       </c>
       <c r="Q27">
-        <v>-799.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6818.1</v>
+        <v>1566.2</v>
       </c>
       <c r="U27">
-        <v>378</v>
+        <v>210.8</v>
       </c>
       <c r="V27">
-        <v>-314.10000000000002</v>
+        <v>93.8</v>
       </c>
       <c r="W27">
-        <v>-86.7</v>
+        <v>-24.9</v>
       </c>
       <c r="X27">
-        <v>1072.8</v>
+        <v>505</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,81 +3006,81 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>393.7</v>
+        <v>67.599999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>277.60000000000002</v>
+        <v>85.3</v>
       </c>
       <c r="D28">
-        <v>3286.7</v>
+        <v>1095.7</v>
       </c>
       <c r="E28">
-        <v>1927.9</v>
+        <v>854.4</v>
       </c>
       <c r="F28">
-        <v>1239.4000000000001</v>
+        <v>422.4</v>
       </c>
       <c r="G28">
-        <v>4839.1000000000004</v>
+        <v>1777.6</v>
       </c>
       <c r="H28">
-        <v>19312.3</v>
+        <v>4657</v>
       </c>
       <c r="I28">
-        <v>2093</v>
+        <v>471.2</v>
       </c>
       <c r="J28">
-        <v>3871.8</v>
+        <v>1211.0999999999999</v>
       </c>
       <c r="K28">
-        <v>583.20000000000005</v>
+        <v>221</v>
       </c>
       <c r="L28">
-        <v>-593.1</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N28">
-        <v>3866.9</v>
+        <v>1329.4</v>
       </c>
       <c r="O28">
-        <v>11605.9</v>
+        <v>3076.1</v>
       </c>
       <c r="P28">
-        <v>4463.5</v>
+        <v>1593.2</v>
       </c>
       <c r="Q28">
-        <v>161.5</v>
+        <v>14.9</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>7706.4</v>
+        <v>1580.9</v>
       </c>
       <c r="U28">
-        <v>539.5</v>
+        <v>225.7</v>
       </c>
       <c r="V28">
-        <v>151.80000000000001</v>
+        <v>102.1</v>
       </c>
       <c r="W28">
-        <v>-86.5</v>
+        <v>-24.6</v>
       </c>
       <c r="X28">
-        <v>35</v>
+        <v>-51.3</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,81 +3089,81 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>277.60000000000002</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>274.5</v>
+        <v>91.4</v>
       </c>
       <c r="D29">
-        <v>3359.4</v>
+        <v>1106.2</v>
       </c>
       <c r="E29">
-        <v>2009.8</v>
+        <v>906.2</v>
       </c>
       <c r="F29">
-        <v>1262.5999999999999</v>
+        <v>421.6</v>
       </c>
       <c r="G29">
-        <v>5028.7</v>
+        <v>1911.1</v>
       </c>
       <c r="H29">
-        <v>19773.2</v>
+        <v>4865.3999999999996</v>
       </c>
       <c r="I29">
-        <v>2091.6</v>
+        <v>491.9</v>
       </c>
       <c r="J29">
-        <v>3874</v>
+        <v>1212.2</v>
       </c>
       <c r="K29">
-        <v>577</v>
+        <v>235.6</v>
       </c>
       <c r="L29">
-        <v>-64.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="N29">
-        <v>4002.2</v>
+        <v>1389.8</v>
       </c>
       <c r="O29">
-        <v>11754.4</v>
+        <v>3170.3</v>
       </c>
       <c r="P29">
-        <v>4459.7</v>
+        <v>1608.2</v>
       </c>
       <c r="Q29">
-        <v>-56.2</v>
+        <v>54.9</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>8018.8</v>
+        <v>1695.1</v>
       </c>
       <c r="U29">
-        <v>483.3</v>
+        <v>280.60000000000002</v>
       </c>
       <c r="V29">
-        <v>115.6</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="W29">
-        <v>-94.7</v>
+        <v>-25.4</v>
       </c>
       <c r="X29">
-        <v>-161.9</v>
+        <v>-8.4</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>274.5</v>
+        <v>91.4</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>281.5</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>3464.2</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1466.4</v>
+        <v>761.8</v>
       </c>
       <c r="F30">
-        <v>1250.3</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>4559</v>
+        <v>1801.1</v>
       </c>
       <c r="H30">
-        <v>19097.7</v>
+        <v>4763</v>
       </c>
       <c r="I30">
-        <v>2021</v>
+        <v>498.6</v>
       </c>
       <c r="J30">
-        <v>2828.2</v>
+        <v>1212.0999999999999</v>
       </c>
       <c r="K30">
-        <v>5.3</v>
+        <v>282.5</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>4391.5</v>
+        <v>1262.7</v>
       </c>
       <c r="O30">
-        <v>10792.7</v>
+        <v>3034.5</v>
       </c>
       <c r="P30">
-        <v>3866.8</v>
+        <v>1504.9</v>
       </c>
       <c r="Q30">
-        <v>171.8</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="S30">
-        <v>57765</v>
+        <v>18400</v>
       </c>
       <c r="T30">
-        <v>8305</v>
+        <v>1728.5</v>
       </c>
       <c r="U30">
-        <v>637.5</v>
+        <v>240.4</v>
       </c>
       <c r="V30">
-        <v>715.2</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-650.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,291 +3255,291 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>281.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>170.6</v>
+        <v>66.5</v>
       </c>
       <c r="D31">
-        <v>3209.3</v>
+        <v>1071</v>
       </c>
       <c r="E31">
-        <v>1836.8</v>
+        <v>891</v>
       </c>
       <c r="F31">
-        <v>1167.4000000000001</v>
+        <v>405.9</v>
       </c>
       <c r="G31">
-        <v>5077.8999999999996</v>
+        <v>1899.2</v>
       </c>
       <c r="H31">
-        <v>19683.2</v>
+        <v>4954.7</v>
       </c>
       <c r="I31">
-        <v>2172.6999999999998</v>
+        <v>532</v>
       </c>
       <c r="J31">
-        <v>2827.6</v>
+        <v>1204</v>
       </c>
       <c r="K31">
-        <v>399.3</v>
+        <v>402.1</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="N31">
-        <v>4810.2</v>
+        <v>1429.5</v>
       </c>
       <c r="O31">
-        <v>11241.4</v>
+        <v>3238.1</v>
       </c>
       <c r="P31">
-        <v>4245.2</v>
+        <v>1621.9</v>
       </c>
       <c r="Q31">
-        <v>-231.9</v>
+        <v>84.4</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>8441.7999999999993</v>
+        <v>1716.6</v>
       </c>
       <c r="U31">
-        <v>405.6</v>
+        <v>324.8</v>
       </c>
       <c r="V31">
-        <v>-349.4</v>
+        <v>107.7</v>
       </c>
       <c r="W31">
-        <v>-94.9</v>
+        <v>-24.3</v>
       </c>
       <c r="X31">
-        <v>215.9</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>170.6</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>293.60000000000002</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="D32">
-        <v>3643.6</v>
+        <v>1151.7</v>
       </c>
       <c r="E32">
-        <v>2007.7</v>
+        <v>928.1</v>
       </c>
       <c r="F32">
-        <v>1295.9000000000001</v>
+        <v>441.6</v>
       </c>
       <c r="G32">
-        <v>5322.6</v>
+        <v>2052.8000000000002</v>
       </c>
       <c r="H32">
-        <v>20179.599999999999</v>
+        <v>5066.5</v>
       </c>
       <c r="I32">
-        <v>2288.5</v>
+        <v>529.6</v>
       </c>
       <c r="J32">
-        <v>2831.2</v>
+        <v>1197.8</v>
       </c>
       <c r="K32">
-        <v>1101.5</v>
+        <v>455</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-6.6</v>
       </c>
       <c r="N32">
-        <v>5638.9</v>
+        <v>1485.7</v>
       </c>
       <c r="O32">
-        <v>11991.8</v>
+        <v>3275.2</v>
       </c>
       <c r="P32">
-        <v>4945.5</v>
+        <v>1662.5</v>
       </c>
       <c r="Q32">
-        <v>-19.8</v>
+        <v>59.4</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>8187.8</v>
+        <v>1791.3</v>
       </c>
       <c r="U32">
-        <v>385.8</v>
+        <v>384.2</v>
       </c>
       <c r="V32">
-        <v>198</v>
+        <v>83.5</v>
       </c>
       <c r="W32">
-        <v>-94.2</v>
+        <v>-24.3</v>
       </c>
       <c r="X32">
-        <v>457.5</v>
+        <v>25.3</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-6.3</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>293.60000000000002</v>
+        <v>78.099999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>247.8</v>
+        <v>163</v>
       </c>
       <c r="D33">
-        <v>3494.8</v>
+        <v>1117.5999999999999</v>
       </c>
       <c r="E33">
-        <v>2079.6999999999998</v>
+        <v>884.7</v>
       </c>
       <c r="F33">
-        <v>1241.7</v>
+        <v>431.4</v>
       </c>
       <c r="G33">
-        <v>5555.4</v>
+        <v>1848.5</v>
       </c>
       <c r="H33">
-        <v>20447.7</v>
+        <v>5121.3</v>
       </c>
       <c r="I33">
-        <v>2320.1999999999998</v>
+        <v>523.79999999999995</v>
       </c>
       <c r="J33">
-        <v>2830.6</v>
+        <v>1194.4000000000001</v>
       </c>
       <c r="K33">
-        <v>1408.1</v>
+        <v>442.9</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-31.5</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N33">
-        <v>6052</v>
+        <v>1498.8</v>
       </c>
       <c r="O33">
-        <v>12362.6</v>
+        <v>3249.8</v>
       </c>
       <c r="P33">
-        <v>5243</v>
+        <v>1650.6</v>
       </c>
       <c r="Q33">
-        <v>-34.700000000000003</v>
+        <v>-84.9</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>8085.1</v>
+        <v>1871.5</v>
       </c>
       <c r="U33">
-        <v>368.7</v>
+        <v>299.3</v>
       </c>
       <c r="V33">
-        <v>191.5</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="W33">
-        <v>-97.4</v>
+        <v>-25.2</v>
       </c>
       <c r="X33">
-        <v>-97.6</v>
+        <v>-54.1</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-5.8</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>247.8</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43463</v>
+        <v>39816</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-106.8</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>3634.7</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1485.1</v>
+        <v>642.4</v>
       </c>
       <c r="F34">
-        <v>1211.8</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4569.3999999999996</v>
+        <v>1498</v>
       </c>
       <c r="H34">
-        <v>19408</v>
+        <v>4866.6000000000004</v>
       </c>
       <c r="I34">
-        <v>2233.1999999999998</v>
+        <v>461.5</v>
       </c>
       <c r="J34">
-        <v>3819.8</v>
+        <v>1389.8</v>
       </c>
       <c r="K34">
-        <v>376.1</v>
+        <v>213.8</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,330 +3548,330 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>4001.6</v>
+        <v>1193.2</v>
       </c>
       <c r="O34">
-        <v>11568.1</v>
+        <v>3141.8</v>
       </c>
       <c r="P34">
-        <v>4198.3999999999996</v>
+        <v>1618.1</v>
       </c>
       <c r="Q34">
-        <v>-57.3</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>43463</v>
+        <v>39816</v>
       </c>
       <c r="S34">
-        <v>60767</v>
+        <v>18225</v>
       </c>
       <c r="T34">
-        <v>7839.9</v>
+        <v>1724.8</v>
       </c>
       <c r="U34">
-        <v>288.7</v>
+        <v>211.6</v>
       </c>
       <c r="V34">
-        <v>1220.8</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>-98.4</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-1137.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-5.6</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-106.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39907</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>169.9</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D35">
-        <v>3333.6</v>
+        <v>913</v>
       </c>
       <c r="E35">
-        <v>1735.6</v>
+        <v>659.1</v>
       </c>
       <c r="F35">
-        <v>1112</v>
+        <v>361.1</v>
       </c>
       <c r="G35">
-        <v>5253.9</v>
+        <v>1391.1</v>
       </c>
       <c r="H35">
-        <v>21460.3</v>
+        <v>4723.7</v>
       </c>
       <c r="I35">
-        <v>2264.3000000000002</v>
+        <v>400.8</v>
       </c>
       <c r="J35">
-        <v>3919.3</v>
+        <v>1385.4</v>
       </c>
       <c r="K35">
-        <v>1780.7</v>
+        <v>202.2</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="M35">
-        <v>-400</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="N35">
-        <v>5766.2</v>
+        <v>1098.0999999999999</v>
       </c>
       <c r="O35">
-        <v>13523.6</v>
+        <v>3017.5</v>
       </c>
       <c r="P35">
-        <v>6198.1</v>
+        <v>1601.1</v>
       </c>
       <c r="Q35">
-        <v>-25.6</v>
+        <v>-83.6</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39907</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>7936.7</v>
+        <v>1706.2</v>
       </c>
       <c r="U35">
-        <v>281.8</v>
+        <v>128</v>
       </c>
       <c r="V35">
-        <v>-431.3</v>
+        <v>3.6</v>
       </c>
       <c r="W35">
-        <v>-97.6</v>
+        <v>-25.3</v>
       </c>
       <c r="X35">
-        <v>1408.2</v>
+        <v>-54.4</v>
       </c>
       <c r="Y35">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-245.4</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>169.9</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39998</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>356.3</v>
+        <v>69.5</v>
       </c>
       <c r="D36">
-        <v>3761.3</v>
+        <v>919.2</v>
       </c>
       <c r="E36">
-        <v>1664</v>
+        <v>654.9</v>
       </c>
       <c r="F36">
-        <v>1310.5</v>
+        <v>366.6</v>
       </c>
       <c r="G36">
-        <v>5345.2</v>
+        <v>1375.9</v>
       </c>
       <c r="H36">
-        <v>21523.599999999999</v>
+        <v>4749.7</v>
       </c>
       <c r="I36">
-        <v>2323.8000000000002</v>
+        <v>370.7</v>
       </c>
       <c r="J36">
-        <v>3937.5</v>
+        <v>1276.9000000000001</v>
       </c>
       <c r="K36">
-        <v>1461.6</v>
+        <v>258.8</v>
       </c>
       <c r="L36">
-        <v>-330.6</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-60.5</v>
       </c>
       <c r="N36">
-        <v>5653.1</v>
+        <v>1118.3</v>
       </c>
       <c r="O36">
-        <v>13290.3</v>
+        <v>2929.8</v>
       </c>
       <c r="P36">
-        <v>5893.2</v>
+        <v>1552.8</v>
       </c>
       <c r="Q36">
-        <v>39.1</v>
+        <v>28.3</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39998</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>8233.2999999999993</v>
+        <v>1819.9</v>
       </c>
       <c r="U36">
-        <v>310.7</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="V36">
-        <v>501</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="W36">
-        <v>-97.7</v>
+        <v>-25.3</v>
       </c>
       <c r="X36">
-        <v>-429.9</v>
+        <v>-23.5</v>
       </c>
       <c r="Y36">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-8.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>356.3</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>230.5</v>
+        <v>60.4</v>
       </c>
       <c r="D37">
-        <v>3633.1</v>
+        <v>935.5</v>
       </c>
       <c r="E37">
-        <v>1740.8</v>
+        <v>650.5</v>
       </c>
       <c r="F37">
-        <v>1244.8</v>
+        <v>386.4</v>
       </c>
       <c r="G37">
-        <v>5328</v>
+        <v>1405.1</v>
       </c>
       <c r="H37">
-        <v>21322.5</v>
+        <v>4802.7</v>
       </c>
       <c r="I37">
-        <v>2070.3000000000002</v>
+        <v>372.2</v>
       </c>
       <c r="J37">
-        <v>3968.5</v>
+        <v>1087.5999999999999</v>
       </c>
       <c r="K37">
-        <v>1454.9</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>-105.1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="N37">
-        <v>5441.9</v>
+        <v>1238.5999999999999</v>
       </c>
       <c r="O37">
-        <v>13054.3</v>
+        <v>2867.6</v>
       </c>
       <c r="P37">
-        <v>5911.5</v>
+        <v>1454.5</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>51.1</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>8268.2000000000007</v>
+        <v>1935.1</v>
       </c>
       <c r="U37">
-        <v>311.7</v>
+        <v>207.4</v>
       </c>
       <c r="V37">
-        <v>192.7</v>
+        <v>176.3</v>
       </c>
       <c r="W37">
-        <v>-102.3</v>
+        <v>-26.3</v>
       </c>
       <c r="X37">
-        <v>-67.400000000000006</v>
+        <v>-102.5</v>
       </c>
       <c r="Y37">
-        <v>447.5</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>230.5</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43827</v>
+        <v>40180</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>199.1</v>
+        <v>56.7</v>
       </c>
       <c r="D38">
-        <v>3714.2</v>
+        <v>969.4</v>
       </c>
       <c r="E38">
-        <v>1328.3</v>
+        <v>500.2</v>
       </c>
       <c r="F38">
-        <v>1177.9000000000001</v>
+        <v>394.2</v>
       </c>
       <c r="G38">
-        <v>4456.6000000000004</v>
+        <v>1411.9</v>
       </c>
       <c r="H38">
-        <v>20596.599999999999</v>
+        <v>4769.1000000000004</v>
       </c>
       <c r="I38">
-        <v>2087.8000000000002</v>
+        <v>410.1</v>
       </c>
       <c r="J38">
-        <v>3216.9</v>
+        <v>1087.4000000000001</v>
       </c>
       <c r="K38">
-        <v>337.3</v>
+        <v>90.4</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,377 +3880,3697 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4405.7</v>
+        <v>1192</v>
       </c>
       <c r="O38">
-        <v>11454.4</v>
+        <v>2757.6</v>
       </c>
       <c r="P38">
-        <v>3698.6</v>
+        <v>1388</v>
       </c>
       <c r="Q38">
-        <v>-9.8000000000000007</v>
+        <v>193.3</v>
       </c>
       <c r="R38">
-        <v>43827</v>
+        <v>40180</v>
       </c>
       <c r="S38">
-        <v>59438</v>
+        <v>16700</v>
       </c>
       <c r="T38">
-        <v>9142.2000000000007</v>
+        <v>2011.5</v>
       </c>
       <c r="U38">
-        <v>297.7</v>
+        <v>400.7</v>
       </c>
       <c r="V38">
-        <v>1243.3</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="W38">
-        <v>-104.4</v>
+        <v>-26.7</v>
       </c>
       <c r="X38">
-        <v>-1203.4000000000001</v>
+        <v>-68.599999999999994</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>199.1</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>40271</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>133.19999999999999</v>
+        <v>-108.6</v>
       </c>
       <c r="D39">
-        <v>3129.4</v>
+        <v>1262</v>
       </c>
       <c r="E39">
-        <v>1543.5</v>
+        <v>1557.4</v>
       </c>
       <c r="F39">
-        <v>1032.2</v>
+        <v>497.9</v>
       </c>
       <c r="G39">
-        <v>5692.9</v>
+        <v>4983.8999999999996</v>
       </c>
       <c r="H39">
-        <v>22905</v>
+        <v>14634.7</v>
       </c>
       <c r="I39">
-        <v>2029.2</v>
+        <v>928.7</v>
       </c>
       <c r="J39">
-        <v>4781.5</v>
+        <v>2743.4</v>
       </c>
       <c r="K39">
-        <v>1674</v>
+        <v>701.3</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-200.8</v>
       </c>
       <c r="N39">
-        <v>5370.3</v>
+        <v>3158.9</v>
       </c>
       <c r="O39">
-        <v>13945.8</v>
+        <v>8096.3</v>
       </c>
       <c r="P39">
-        <v>6981.8</v>
+        <v>3453.2</v>
       </c>
       <c r="Q39">
-        <v>683.7</v>
+        <v>1104.7</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>40271</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>8959.2000000000007</v>
+        <v>6538.4</v>
       </c>
       <c r="U39">
-        <v>987.1</v>
+        <v>1505.4</v>
       </c>
       <c r="V39">
-        <v>-405.2</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="W39">
-        <v>-105.6</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="X39">
-        <v>2475.1999999999998</v>
+        <v>210.9</v>
       </c>
       <c r="Y39">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>133.19999999999999</v>
+        <v>-108.6</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>40362</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>238.4</v>
+        <v>45.8</v>
       </c>
       <c r="D40">
-        <v>3147.4</v>
+        <v>2365.6</v>
       </c>
       <c r="E40">
-        <v>1571.3</v>
+        <v>1550</v>
       </c>
       <c r="F40">
-        <v>1055.3</v>
+        <v>892.7</v>
       </c>
       <c r="G40">
-        <v>5769.5</v>
+        <v>4872.3999999999996</v>
       </c>
       <c r="H40">
-        <v>22984.400000000001</v>
+        <v>13995.6</v>
       </c>
       <c r="I40">
-        <v>2117.4</v>
+        <v>979.5</v>
       </c>
       <c r="J40">
-        <v>4772.7</v>
+        <v>2348.4</v>
       </c>
       <c r="K40">
-        <v>703.1</v>
+        <v>343.9</v>
       </c>
       <c r="L40">
-        <v>-980.8</v>
+        <v>-357.1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="N40">
-        <v>4578.3</v>
+        <v>3074.7</v>
       </c>
       <c r="O40">
-        <v>13018.8</v>
+        <v>7361.1</v>
       </c>
       <c r="P40">
-        <v>5995.9</v>
+        <v>3143.9</v>
       </c>
       <c r="Q40">
-        <v>-121.7</v>
+        <v>93</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>40362</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>9965.6</v>
+        <v>6634.5</v>
       </c>
       <c r="U40">
-        <v>859.8</v>
+        <v>1598.4</v>
       </c>
       <c r="V40">
-        <v>328.2</v>
+        <v>221</v>
       </c>
       <c r="W40">
-        <v>-105.8</v>
+        <v>-54.6</v>
       </c>
       <c r="X40">
-        <v>-391.5</v>
+        <v>-71.599999999999994</v>
       </c>
       <c r="Y40">
-        <v>443.3</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-7.1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>238.4</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44100</v>
+        <v>40453</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>394.9</v>
+        <v>123.2</v>
       </c>
       <c r="D41">
-        <v>3850.2</v>
+        <v>2369.1</v>
       </c>
       <c r="E41">
-        <v>1611.8</v>
+        <v>1699.4</v>
       </c>
       <c r="F41">
-        <v>1383.3</v>
+        <v>874.3</v>
       </c>
       <c r="G41">
-        <v>5787</v>
+        <v>5102.3</v>
       </c>
       <c r="H41">
-        <v>23040.9</v>
+        <v>14872.7</v>
       </c>
       <c r="I41">
-        <v>2345.3000000000002</v>
+        <v>1014.4</v>
       </c>
       <c r="J41">
-        <v>4770.6000000000004</v>
+        <v>2768.1</v>
       </c>
       <c r="K41">
-        <v>3.2</v>
+        <v>305.7</v>
       </c>
       <c r="L41">
-        <v>-712.9</v>
+        <v>-38.6</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="N41">
-        <v>4221.8</v>
+        <v>3157.1</v>
       </c>
       <c r="O41">
-        <v>12661.6</v>
+        <v>7935.1</v>
       </c>
       <c r="P41">
-        <v>5303.3</v>
+        <v>3495.6</v>
       </c>
       <c r="Q41">
-        <v>-180.5</v>
+        <v>37.5</v>
       </c>
       <c r="R41">
-        <v>44100</v>
+        <v>40453</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>10379.299999999999</v>
+        <v>6937.6</v>
       </c>
       <c r="U41">
-        <v>683</v>
+        <v>1635.9</v>
       </c>
       <c r="V41">
-        <v>677.2</v>
+        <v>199.1</v>
       </c>
       <c r="W41">
-        <v>-119</v>
+        <v>-56.3</v>
       </c>
       <c r="X41">
-        <v>-810.2</v>
+        <v>266.39999999999998</v>
       </c>
       <c r="Y41">
-        <v>488.9</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>394.9</v>
+        <v>123.2</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44198</v>
+        <v>40544</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1324.3</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>4851.2</v>
+      </c>
+      <c r="H42">
+        <v>15139.4</v>
+      </c>
+      <c r="I42">
+        <v>990.7</v>
+      </c>
+      <c r="J42">
+        <v>3047.3</v>
+      </c>
+      <c r="K42">
+        <v>1.6</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2747.4</v>
+      </c>
+      <c r="O42">
+        <v>8069.7</v>
+      </c>
+      <c r="P42">
+        <v>3465</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>40544</v>
+      </c>
+      <c r="S42">
+        <v>36700</v>
+      </c>
+      <c r="T42">
+        <v>7069.7</v>
+      </c>
+      <c r="U42">
+        <v>1742.8</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40635</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="D43">
+        <v>2361.5</v>
+      </c>
+      <c r="E43">
+        <v>1547.8</v>
+      </c>
+      <c r="F43">
+        <v>883.7</v>
+      </c>
+      <c r="G43">
+        <v>5174.5</v>
+      </c>
+      <c r="H43">
+        <v>15756</v>
+      </c>
+      <c r="I43">
+        <v>1170.5999999999999</v>
+      </c>
+      <c r="J43">
+        <v>3036.9</v>
+      </c>
+      <c r="K43">
+        <v>143</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-0.5</v>
+      </c>
+      <c r="N43">
+        <v>2992.1</v>
+      </c>
+      <c r="O43">
+        <v>8370.2000000000007</v>
+      </c>
+      <c r="P43">
+        <v>3595.5</v>
+      </c>
+      <c r="Q43">
+        <v>138</v>
+      </c>
+      <c r="R43">
+        <v>40635</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>7385.8</v>
+      </c>
+      <c r="U43">
+        <v>1883.5</v>
+      </c>
+      <c r="V43">
+        <v>120.3</v>
+      </c>
+      <c r="W43">
+        <v>-68.599999999999994</v>
+      </c>
+      <c r="X43">
+        <v>126.2</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>158.69999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40726</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>197.3</v>
+      </c>
+      <c r="D44">
+        <v>2603.3000000000002</v>
+      </c>
+      <c r="E44">
+        <v>1624.6</v>
+      </c>
+      <c r="F44">
+        <v>968.2</v>
+      </c>
+      <c r="G44">
+        <v>5339</v>
+      </c>
+      <c r="H44">
+        <v>16033.5</v>
+      </c>
+      <c r="I44">
+        <v>1267.9000000000001</v>
+      </c>
+      <c r="J44">
+        <v>2766.7</v>
+      </c>
+      <c r="K44">
+        <v>626.9</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-400.9</v>
+      </c>
+      <c r="N44">
+        <v>3404.7</v>
+      </c>
+      <c r="O44">
+        <v>8449.7000000000007</v>
+      </c>
+      <c r="P44">
+        <v>3714.1</v>
+      </c>
+      <c r="Q44">
+        <v>33.6</v>
+      </c>
+      <c r="R44">
+        <v>40726</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>7583.8</v>
+      </c>
+      <c r="U44">
+        <v>1915</v>
+      </c>
+      <c r="V44">
+        <v>179.4</v>
+      </c>
+      <c r="W44">
+        <v>-68.900000000000006</v>
+      </c>
+      <c r="X44">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-42.5</v>
+      </c>
+      <c r="AA44">
+        <v>197.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>154.6</v>
+      </c>
+      <c r="D45">
+        <v>2619.6999999999998</v>
+      </c>
+      <c r="E45">
+        <v>1836.9</v>
+      </c>
+      <c r="F45">
+        <v>983.3</v>
+      </c>
+      <c r="G45">
+        <v>4737.3</v>
+      </c>
+      <c r="H45">
+        <v>16483</v>
+      </c>
+      <c r="I45">
+        <v>1387</v>
+      </c>
+      <c r="J45">
+        <v>2818</v>
+      </c>
+      <c r="K45">
+        <v>560.9</v>
+      </c>
+      <c r="L45">
+        <v>-68.8</v>
+      </c>
+      <c r="M45">
+        <v>-1.8</v>
+      </c>
+      <c r="N45">
+        <v>3810.3</v>
+      </c>
+      <c r="O45">
+        <v>9381.2999999999993</v>
+      </c>
+      <c r="P45">
+        <v>3904</v>
+      </c>
+      <c r="Q45">
+        <v>-1064.2</v>
+      </c>
+      <c r="R45">
+        <v>40817</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>7101.7</v>
+      </c>
+      <c r="U45">
+        <v>851.9</v>
+      </c>
+      <c r="V45">
+        <v>155.9</v>
+      </c>
+      <c r="W45">
+        <v>-69.099999999999994</v>
+      </c>
+      <c r="X45">
+        <v>-122.7</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>24.7</v>
+      </c>
+      <c r="AA45">
+        <v>154.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>164</v>
+      </c>
+      <c r="D46">
+        <v>1851</v>
+      </c>
+      <c r="E46">
+        <v>1403.3</v>
+      </c>
+      <c r="F46">
+        <v>654.6</v>
+      </c>
+      <c r="G46">
+        <v>5089.5</v>
+      </c>
+      <c r="H46">
+        <v>15949</v>
+      </c>
+      <c r="I46">
+        <v>1199.0999999999999</v>
+      </c>
+      <c r="J46">
+        <v>2925.8</v>
+      </c>
+      <c r="K46">
+        <v>0.2</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3329.9</v>
+      </c>
+      <c r="O46">
+        <v>8882.2000000000007</v>
+      </c>
+      <c r="P46">
+        <v>3544.5</v>
+      </c>
+      <c r="Q46">
+        <v>56.7</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>44700</v>
+      </c>
+      <c r="T46">
+        <v>7066.8</v>
+      </c>
+      <c r="U46">
+        <v>906.9</v>
+      </c>
+      <c r="V46">
+        <v>543.29999999999995</v>
+      </c>
+      <c r="W46">
+        <v>-69.3</v>
+      </c>
+      <c r="X46">
+        <v>-413.6</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>17.8</v>
+      </c>
+      <c r="AA46">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>121.8</v>
+      </c>
+      <c r="D47">
+        <v>2426.1</v>
+      </c>
+      <c r="E47">
+        <v>1725.8</v>
+      </c>
+      <c r="F47">
+        <v>914.3</v>
+      </c>
+      <c r="G47">
+        <v>4603.3</v>
+      </c>
+      <c r="H47">
+        <v>16350.3</v>
+      </c>
+      <c r="I47">
+        <v>1417.5</v>
+      </c>
+      <c r="J47">
+        <v>2914.2</v>
+      </c>
+      <c r="K47">
+        <v>197</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-0.3</v>
+      </c>
+      <c r="N47">
+        <v>3437.1</v>
+      </c>
+      <c r="O47">
+        <v>9088.7000000000007</v>
+      </c>
+      <c r="P47">
+        <v>3682.4</v>
+      </c>
+      <c r="Q47">
+        <v>-23.3</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>7261.6</v>
+      </c>
+      <c r="U47">
+        <v>883.6</v>
+      </c>
+      <c r="V47">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="W47">
+        <v>-69.900000000000006</v>
+      </c>
+      <c r="X47">
+        <v>158.9</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="D48">
+        <v>2545.1</v>
+      </c>
+      <c r="E48">
+        <v>1675.8</v>
+      </c>
+      <c r="F48">
+        <v>929.2</v>
+      </c>
+      <c r="G48">
+        <v>4305.8</v>
+      </c>
+      <c r="H48">
+        <v>16350.4</v>
+      </c>
+      <c r="I48">
+        <v>1437</v>
+      </c>
+      <c r="J48">
+        <v>2924.5</v>
+      </c>
+      <c r="K48">
+        <v>789.2</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3771.1</v>
+      </c>
+      <c r="O48">
+        <v>9458.2000000000007</v>
+      </c>
+      <c r="P48">
+        <v>3975.4</v>
+      </c>
+      <c r="Q48">
+        <v>-305.8</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>6892.2</v>
+      </c>
+      <c r="U48">
+        <v>577.79999999999995</v>
+      </c>
+      <c r="V48">
+        <v>299.2</v>
+      </c>
+      <c r="W48">
+        <v>-68.900000000000006</v>
+      </c>
+      <c r="X48">
+        <v>5.6</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>154.80000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>115.2</v>
+      </c>
+      <c r="D49">
+        <v>2517.1999999999998</v>
+      </c>
+      <c r="E49">
+        <v>1829.9</v>
+      </c>
+      <c r="F49">
+        <v>923.9</v>
+      </c>
+      <c r="G49">
+        <v>4753.8999999999996</v>
+      </c>
+      <c r="H49">
+        <v>17114.2</v>
+      </c>
+      <c r="I49">
+        <v>1489.2</v>
+      </c>
+      <c r="J49">
+        <v>2728.9</v>
+      </c>
+      <c r="K49">
+        <v>1336.7</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-900.9</v>
+      </c>
+      <c r="N49">
+        <v>4670.3</v>
+      </c>
+      <c r="O49">
+        <v>9850.2999999999993</v>
+      </c>
+      <c r="P49">
+        <v>4319.7</v>
+      </c>
+      <c r="Q49">
+        <v>191.7</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>7263.9</v>
+      </c>
+      <c r="U49">
+        <v>769.5</v>
+      </c>
+      <c r="V49">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="W49">
+        <v>-82.5</v>
+      </c>
+      <c r="X49">
+        <v>209</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1388.7</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>4111.3</v>
+      </c>
+      <c r="H50">
+        <v>15844</v>
+      </c>
+      <c r="I50">
+        <v>1345.9</v>
+      </c>
+      <c r="J50">
+        <v>3531.1</v>
+      </c>
+      <c r="K50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3074.7</v>
+      </c>
+      <c r="O50">
+        <v>9116.9</v>
+      </c>
+      <c r="P50">
+        <v>3545.9</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>41272</v>
+      </c>
+      <c r="S50">
+        <v>45327</v>
+      </c>
+      <c r="T50">
+        <v>6727.1</v>
+      </c>
+      <c r="U50">
+        <v>716</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="D51">
+        <v>2475.1999999999998</v>
+      </c>
+      <c r="E51">
+        <v>1782.7</v>
+      </c>
+      <c r="F51">
+        <v>921.8</v>
+      </c>
+      <c r="G51">
+        <v>4425.8999999999996</v>
+      </c>
+      <c r="H51">
+        <v>16897.5</v>
+      </c>
+      <c r="I51">
+        <v>1514.8</v>
+      </c>
+      <c r="J51">
+        <v>3526.9</v>
+      </c>
+      <c r="K51">
+        <v>1331.9</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>4132.6000000000004</v>
+      </c>
+      <c r="O51">
+        <v>10238.4</v>
+      </c>
+      <c r="P51">
+        <v>4871.5</v>
+      </c>
+      <c r="Q51">
+        <v>-158.5</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>6659.1</v>
+      </c>
+      <c r="U51">
+        <v>557.5</v>
+      </c>
+      <c r="V51">
+        <v>-147.5</v>
+      </c>
+      <c r="W51">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="X51">
+        <v>962.1</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>187.1</v>
+      </c>
+      <c r="D52">
+        <v>2858.2</v>
+      </c>
+      <c r="E52">
+        <v>1794.3</v>
+      </c>
+      <c r="F52">
+        <v>1013.6</v>
+      </c>
+      <c r="G52">
+        <v>4256.8999999999996</v>
+      </c>
+      <c r="H52">
+        <v>16702.900000000001</v>
+      </c>
+      <c r="I52">
+        <v>1558.7</v>
+      </c>
+      <c r="J52">
+        <v>3518.7</v>
+      </c>
+      <c r="K52">
+        <v>1277.5999999999999</v>
+      </c>
+      <c r="L52">
+        <v>-60.1</v>
+      </c>
+      <c r="M52">
+        <v>-0.5</v>
+      </c>
+      <c r="N52">
+        <v>3929.9</v>
+      </c>
+      <c r="O52">
+        <v>9978.4</v>
+      </c>
+      <c r="P52">
+        <v>4811.5</v>
+      </c>
+      <c r="Q52">
+        <v>4.2</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>6724.5</v>
+      </c>
+      <c r="U52">
+        <v>561.70000000000005</v>
+      </c>
+      <c r="V52">
+        <v>184.2</v>
+      </c>
+      <c r="W52">
+        <v>-78.400000000000006</v>
+      </c>
+      <c r="X52">
+        <v>-120.3</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>187.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>166</v>
+      </c>
+      <c r="D53">
+        <v>2758.3</v>
+      </c>
+      <c r="E53">
+        <v>1936.4</v>
+      </c>
+      <c r="F53">
+        <v>992.9</v>
+      </c>
+      <c r="G53">
+        <v>4431.2</v>
+      </c>
+      <c r="H53">
+        <v>17023.7</v>
+      </c>
+      <c r="I53">
+        <v>1625.9</v>
+      </c>
+      <c r="J53">
+        <v>3517.6</v>
+      </c>
+      <c r="K53">
+        <v>1206.5</v>
+      </c>
+      <c r="L53">
+        <v>-70.900000000000006</v>
+      </c>
+      <c r="M53">
+        <v>-0.6</v>
+      </c>
+      <c r="N53">
+        <v>3948.8</v>
+      </c>
+      <c r="O53">
+        <v>10005.4</v>
+      </c>
+      <c r="P53">
+        <v>4739.6000000000004</v>
+      </c>
+      <c r="Q53">
+        <v>-92.6</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>7018.3</v>
+      </c>
+      <c r="U53">
+        <v>469.1</v>
+      </c>
+      <c r="V53">
+        <v>99.6</v>
+      </c>
+      <c r="W53">
+        <v>-77.5</v>
+      </c>
+      <c r="X53">
+        <v>-106.5</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1442.7</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>4016.6</v>
+      </c>
+      <c r="H54">
+        <v>16535.099999999999</v>
+      </c>
+      <c r="I54">
+        <v>1552.9</v>
+      </c>
+      <c r="J54">
+        <v>3938.7</v>
+      </c>
+      <c r="K54">
+        <v>392.7</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3236</v>
+      </c>
+      <c r="O54">
+        <v>9654.6</v>
+      </c>
+      <c r="P54">
+        <v>4344.6000000000004</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>41636</v>
+      </c>
+      <c r="S54">
+        <v>50700</v>
+      </c>
+      <c r="T54">
+        <v>6880.5</v>
+      </c>
+      <c r="U54">
+        <v>496.2</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>161.9</v>
+      </c>
+      <c r="D55">
+        <v>2617.1</v>
+      </c>
+      <c r="E55">
+        <v>1795.8</v>
+      </c>
+      <c r="F55">
+        <v>956.4</v>
+      </c>
+      <c r="G55">
+        <v>4271.2</v>
+      </c>
+      <c r="H55">
+        <v>16832.900000000001</v>
+      </c>
+      <c r="I55">
+        <v>1581.8</v>
+      </c>
+      <c r="J55">
+        <v>3903.2</v>
+      </c>
+      <c r="K55">
+        <v>675</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-0.3</v>
+      </c>
+      <c r="N55">
+        <v>3455.8</v>
+      </c>
+      <c r="O55">
+        <v>9853.6</v>
+      </c>
+      <c r="P55">
+        <v>4589.8</v>
+      </c>
+      <c r="Q55">
+        <v>-63.6</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>6979.3</v>
+      </c>
+      <c r="U55">
+        <v>432.6</v>
+      </c>
+      <c r="V55">
+        <v>-152</v>
+      </c>
+      <c r="W55">
+        <v>-80.7</v>
+      </c>
+      <c r="X55">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>161.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>216.5</v>
+      </c>
+      <c r="D56">
+        <v>2860.1</v>
+      </c>
+      <c r="E56">
+        <v>1788.8</v>
+      </c>
+      <c r="F56">
+        <v>1048.5999999999999</v>
+      </c>
+      <c r="G56">
+        <v>4400.6000000000004</v>
+      </c>
+      <c r="H56">
+        <v>16958.8</v>
+      </c>
+      <c r="I56">
+        <v>1701.2</v>
+      </c>
+      <c r="J56">
+        <v>3907.6</v>
+      </c>
+      <c r="K56">
+        <v>475.3</v>
+      </c>
+      <c r="L56">
+        <v>-199.7</v>
+      </c>
+      <c r="M56">
+        <v>-0.3</v>
+      </c>
+      <c r="N56">
+        <v>3387</v>
+      </c>
+      <c r="O56">
+        <v>9821.5</v>
+      </c>
+      <c r="P56">
+        <v>4395</v>
+      </c>
+      <c r="Q56">
+        <v>83.1</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>7137.3</v>
+      </c>
+      <c r="U56">
+        <v>515.70000000000005</v>
+      </c>
+      <c r="V56">
+        <v>437.2</v>
+      </c>
+      <c r="W56">
+        <v>-78.400000000000006</v>
+      </c>
+      <c r="X56">
+        <v>-268.3</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>216.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>236.7</v>
+      </c>
+      <c r="D57">
+        <v>2878.9</v>
+      </c>
+      <c r="E57">
+        <v>1861.1</v>
+      </c>
+      <c r="F57">
+        <v>1046.5999999999999</v>
+      </c>
+      <c r="G57">
+        <v>4452.1000000000004</v>
+      </c>
+      <c r="H57">
+        <v>16733.8</v>
+      </c>
+      <c r="I57">
+        <v>1713.5</v>
+      </c>
+      <c r="J57">
+        <v>3910.9</v>
+      </c>
+      <c r="K57">
+        <v>426.5</v>
+      </c>
+      <c r="L57">
+        <v>-48.8</v>
+      </c>
+      <c r="M57">
+        <v>-0.3</v>
+      </c>
+      <c r="N57">
+        <v>3387.3</v>
+      </c>
+      <c r="O57">
+        <v>9689.7999999999993</v>
+      </c>
+      <c r="P57">
+        <v>4346.8</v>
+      </c>
+      <c r="Q57">
+        <v>-28.9</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>7044</v>
+      </c>
+      <c r="U57">
+        <v>486.8</v>
+      </c>
+      <c r="V57">
+        <v>249.1</v>
+      </c>
+      <c r="W57">
+        <v>-81.400000000000006</v>
+      </c>
+      <c r="X57">
+        <v>-113.1</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>236.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42007</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1280.3</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>3948.8</v>
+      </c>
+      <c r="H58">
+        <v>15849.1</v>
+      </c>
+      <c r="I58">
+        <v>1579.2</v>
+      </c>
+      <c r="J58">
+        <v>3893.2</v>
+      </c>
+      <c r="K58">
+        <v>1.6</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2832</v>
+      </c>
+      <c r="O58">
+        <v>9337.2000000000007</v>
+      </c>
+      <c r="P58">
+        <v>3901.8</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>42007</v>
+      </c>
+      <c r="S58">
+        <v>50400</v>
+      </c>
+      <c r="T58">
+        <v>6511.9</v>
+      </c>
+      <c r="U58">
+        <v>496.6</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42098</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="D59">
+        <v>2630</v>
+      </c>
+      <c r="E59">
+        <v>1612.8</v>
+      </c>
+      <c r="F59">
+        <v>973.6</v>
+      </c>
+      <c r="G59">
+        <v>4324.7</v>
+      </c>
+      <c r="H59">
+        <v>15943.7</v>
+      </c>
+      <c r="I59">
+        <v>1674.8</v>
+      </c>
+      <c r="J59">
+        <v>3906.9</v>
+      </c>
+      <c r="K59">
+        <v>600.4</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-0.3</v>
+      </c>
+      <c r="N59">
+        <v>3446.8</v>
+      </c>
+      <c r="O59">
+        <v>10246.5</v>
+      </c>
+      <c r="P59">
+        <v>4515.8</v>
+      </c>
+      <c r="Q59">
+        <v>-61.1</v>
+      </c>
+      <c r="R59">
+        <v>42098</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>5697.2</v>
+      </c>
+      <c r="U59">
+        <v>435.5</v>
+      </c>
+      <c r="V59">
+        <v>-197.5</v>
+      </c>
+      <c r="W59">
+        <v>-82.7</v>
+      </c>
+      <c r="X59">
+        <v>206.6</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>162.30000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42189</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>227.2</v>
+      </c>
+      <c r="D60">
+        <v>2866.9</v>
+      </c>
+      <c r="E60">
+        <v>1645.9</v>
+      </c>
+      <c r="F60">
+        <v>1057.2</v>
+      </c>
+      <c r="G60">
+        <v>4344.8</v>
+      </c>
+      <c r="H60">
+        <v>15998.8</v>
+      </c>
+      <c r="I60">
+        <v>1764.6</v>
+      </c>
+      <c r="J60">
+        <v>3858.2</v>
+      </c>
+      <c r="K60">
+        <v>420.2</v>
+      </c>
+      <c r="L60">
+        <v>-180.2</v>
+      </c>
+      <c r="M60">
+        <v>-0.3</v>
+      </c>
+      <c r="N60">
+        <v>3385</v>
+      </c>
+      <c r="O60">
+        <v>10132.299999999999</v>
+      </c>
+      <c r="P60">
+        <v>4299.8999999999996</v>
+      </c>
+      <c r="Q60">
+        <v>-43.6</v>
+      </c>
+      <c r="R60">
+        <v>42189</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5866.5</v>
+      </c>
+      <c r="U60">
+        <v>391.9</v>
+      </c>
+      <c r="V60">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="W60">
+        <v>-76.8</v>
+      </c>
+      <c r="X60">
+        <v>-329.8</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>227.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>228.7</v>
+      </c>
+      <c r="D61">
+        <v>2829.5</v>
+      </c>
+      <c r="E61">
+        <v>1690.9</v>
+      </c>
+      <c r="F61">
+        <v>1027</v>
+      </c>
+      <c r="G61">
+        <v>4273.3</v>
+      </c>
+      <c r="H61">
+        <v>15870.9</v>
+      </c>
+      <c r="I61">
+        <v>1718.9</v>
+      </c>
+      <c r="J61">
+        <v>3889</v>
+      </c>
+      <c r="K61">
+        <v>452</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-15.5</v>
+      </c>
+      <c r="N61">
+        <v>3422.3</v>
+      </c>
+      <c r="O61">
+        <v>10150.299999999999</v>
+      </c>
+      <c r="P61">
+        <v>4349</v>
+      </c>
+      <c r="Q61">
+        <v>-98.6</v>
+      </c>
+      <c r="R61">
+        <v>42280</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>5720.6</v>
+      </c>
+      <c r="U61">
+        <v>293.3</v>
+      </c>
+      <c r="V61">
+        <v>239</v>
+      </c>
+      <c r="W61">
+        <v>-79.7</v>
+      </c>
+      <c r="X61">
+        <v>-250.2</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>228.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42371</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>265.5</v>
+      </c>
+      <c r="D62">
+        <v>2845.4</v>
+      </c>
+      <c r="E62">
+        <v>1222.7</v>
+      </c>
+      <c r="F62">
+        <v>1014.2</v>
+      </c>
+      <c r="G62">
+        <v>3662.1</v>
+      </c>
+      <c r="H62">
+        <v>15127.8</v>
+      </c>
+      <c r="I62">
+        <v>1533.1</v>
+      </c>
+      <c r="J62">
+        <v>3838.4</v>
+      </c>
+      <c r="K62">
+        <v>2.5</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2802.6</v>
+      </c>
+      <c r="O62">
+        <v>9268.6</v>
+      </c>
+      <c r="P62">
+        <v>3848.5</v>
+      </c>
+      <c r="Q62">
+        <v>172.1</v>
+      </c>
+      <c r="R62">
+        <v>42371</v>
+      </c>
+      <c r="S62">
+        <v>51250</v>
+      </c>
+      <c r="T62">
+        <v>5859.2</v>
+      </c>
+      <c r="U62">
+        <v>465.4</v>
+      </c>
+      <c r="V62">
+        <v>828.2</v>
+      </c>
+      <c r="W62">
+        <v>-80.7</v>
+      </c>
+      <c r="X62">
+        <v>-502.2</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42462</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>189.4</v>
+      </c>
+      <c r="D63">
+        <v>2672.1</v>
+      </c>
+      <c r="E63">
+        <v>1592.8</v>
+      </c>
+      <c r="F63">
+        <v>977.6</v>
+      </c>
+      <c r="G63">
+        <v>4016.8</v>
+      </c>
+      <c r="H63">
+        <v>15607.4</v>
+      </c>
+      <c r="I63">
+        <v>1662.3</v>
+      </c>
+      <c r="J63">
+        <v>3889.9</v>
+      </c>
+      <c r="K63">
+        <v>484</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3696.6</v>
+      </c>
+      <c r="O63">
+        <v>9892.2000000000007</v>
+      </c>
+      <c r="P63">
+        <v>4383.3</v>
+      </c>
+      <c r="Q63">
+        <v>-113.2</v>
+      </c>
+      <c r="R63">
+        <v>42462</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5715.2</v>
+      </c>
+      <c r="U63">
+        <v>352.2</v>
+      </c>
+      <c r="V63">
+        <v>-93.1</v>
+      </c>
+      <c r="W63">
+        <v>-79.599999999999994</v>
+      </c>
+      <c r="X63">
+        <v>44.5</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>189.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>271.5</v>
+      </c>
+      <c r="D64">
+        <v>2932.4</v>
+      </c>
+      <c r="E64">
+        <v>1571</v>
+      </c>
+      <c r="F64">
+        <v>1128.9000000000001</v>
+      </c>
+      <c r="G64">
+        <v>4293.2</v>
+      </c>
+      <c r="H64">
+        <v>15740.8</v>
+      </c>
+      <c r="I64">
+        <v>1739</v>
+      </c>
+      <c r="J64">
+        <v>3909.2</v>
+      </c>
+      <c r="K64">
+        <v>351.1</v>
+      </c>
+      <c r="L64">
+        <v>-132.9</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>3709.9</v>
+      </c>
+      <c r="O64">
+        <v>9890.7000000000007</v>
+      </c>
+      <c r="P64">
+        <v>4267.1000000000004</v>
+      </c>
+      <c r="Q64">
+        <v>216</v>
+      </c>
+      <c r="R64">
+        <v>42553</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5850.1</v>
+      </c>
+      <c r="U64">
+        <v>568.20000000000005</v>
+      </c>
+      <c r="V64">
+        <v>496.4</v>
+      </c>
+      <c r="W64">
+        <v>-79.8</v>
+      </c>
+      <c r="X64">
+        <v>-165.9</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>271.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>248.9</v>
+      </c>
+      <c r="D65">
+        <v>2882</v>
+      </c>
+      <c r="E65">
+        <v>1730.2</v>
+      </c>
+      <c r="F65">
+        <v>1084.0999999999999</v>
+      </c>
+      <c r="G65">
+        <v>4262.1000000000004</v>
+      </c>
+      <c r="H65">
+        <v>15720.7</v>
+      </c>
+      <c r="I65">
+        <v>1741.2</v>
+      </c>
+      <c r="J65">
+        <v>3917.3</v>
+      </c>
+      <c r="K65">
+        <v>95</v>
+      </c>
+      <c r="L65">
+        <v>-255.9</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>3463</v>
+      </c>
+      <c r="O65">
+        <v>9639.5</v>
+      </c>
+      <c r="P65">
+        <v>4019.5</v>
+      </c>
+      <c r="Q65">
+        <v>-147.4</v>
+      </c>
+      <c r="R65">
+        <v>42644</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>6081.2</v>
+      </c>
+      <c r="U65">
+        <v>420.8</v>
+      </c>
+      <c r="V65">
+        <v>246.7</v>
+      </c>
+      <c r="W65">
+        <v>-84.5</v>
+      </c>
+      <c r="X65">
+        <v>-325.39999999999998</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>248.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>255.5</v>
+      </c>
+      <c r="D66">
+        <v>2920.4</v>
+      </c>
+      <c r="E66">
+        <v>1199.8</v>
+      </c>
+      <c r="F66">
+        <v>1076.5999999999999</v>
+      </c>
+      <c r="G66">
+        <v>4788.5</v>
+      </c>
+      <c r="H66">
+        <v>15634.9</v>
+      </c>
+      <c r="I66">
+        <v>1640.4</v>
+      </c>
+      <c r="J66">
+        <v>3862.6</v>
+      </c>
+      <c r="K66">
+        <v>4.3</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2807.5</v>
+      </c>
+      <c r="O66">
+        <v>9261.2999999999993</v>
+      </c>
+      <c r="P66">
+        <v>3874.7</v>
+      </c>
+      <c r="Q66">
+        <v>711</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>54023</v>
+      </c>
+      <c r="T66">
+        <v>6373.6</v>
+      </c>
+      <c r="U66">
+        <v>1131.8</v>
+      </c>
+      <c r="V66">
+        <v>835.2</v>
+      </c>
+      <c r="W66">
+        <v>-87</v>
+      </c>
+      <c r="X66">
+        <v>13.7</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>255.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>393.7</v>
+      </c>
+      <c r="D67">
+        <v>2856.3</v>
+      </c>
+      <c r="E67">
+        <v>1728</v>
+      </c>
+      <c r="F67">
+        <v>1072.8</v>
+      </c>
+      <c r="G67">
+        <v>4368.3</v>
+      </c>
+      <c r="H67">
+        <v>18662.099999999999</v>
+      </c>
+      <c r="I67">
+        <v>1928.8</v>
+      </c>
+      <c r="J67">
+        <v>3859</v>
+      </c>
+      <c r="K67">
+        <v>1159.3</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>4214.3999999999996</v>
+      </c>
+      <c r="O67">
+        <v>11844</v>
+      </c>
+      <c r="P67">
+        <v>5026.3999999999996</v>
+      </c>
+      <c r="Q67">
+        <v>-799.2</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>6818.1</v>
+      </c>
+      <c r="U67">
+        <v>378</v>
+      </c>
+      <c r="V67">
+        <v>-314.10000000000002</v>
+      </c>
+      <c r="W67">
+        <v>-86.7</v>
+      </c>
+      <c r="X67">
+        <v>1072.8</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>393.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="D68">
+        <v>3286.7</v>
+      </c>
+      <c r="E68">
+        <v>1927.9</v>
+      </c>
+      <c r="F68">
+        <v>1239.4000000000001</v>
+      </c>
+      <c r="G68">
+        <v>4839.1000000000004</v>
+      </c>
+      <c r="H68">
+        <v>19312.3</v>
+      </c>
+      <c r="I68">
+        <v>2093</v>
+      </c>
+      <c r="J68">
+        <v>3871.8</v>
+      </c>
+      <c r="K68">
+        <v>583.20000000000005</v>
+      </c>
+      <c r="L68">
+        <v>-593.1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3866.9</v>
+      </c>
+      <c r="O68">
+        <v>11605.9</v>
+      </c>
+      <c r="P68">
+        <v>4463.5</v>
+      </c>
+      <c r="Q68">
+        <v>161.5</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>7706.4</v>
+      </c>
+      <c r="U68">
+        <v>539.5</v>
+      </c>
+      <c r="V68">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="W68">
+        <v>-86.5</v>
+      </c>
+      <c r="X68">
+        <v>35</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>277.60000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>274.5</v>
+      </c>
+      <c r="D69">
+        <v>3359.4</v>
+      </c>
+      <c r="E69">
+        <v>2009.8</v>
+      </c>
+      <c r="F69">
+        <v>1262.5999999999999</v>
+      </c>
+      <c r="G69">
+        <v>5028.7</v>
+      </c>
+      <c r="H69">
+        <v>19773.2</v>
+      </c>
+      <c r="I69">
+        <v>2091.6</v>
+      </c>
+      <c r="J69">
+        <v>3874</v>
+      </c>
+      <c r="K69">
+        <v>577</v>
+      </c>
+      <c r="L69">
+        <v>-64.400000000000006</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4002.2</v>
+      </c>
+      <c r="O69">
+        <v>11754.4</v>
+      </c>
+      <c r="P69">
+        <v>4459.7</v>
+      </c>
+      <c r="Q69">
+        <v>-56.2</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>8018.8</v>
+      </c>
+      <c r="U69">
+        <v>483.3</v>
+      </c>
+      <c r="V69">
+        <v>115.6</v>
+      </c>
+      <c r="W69">
+        <v>-94.7</v>
+      </c>
+      <c r="X69">
+        <v>-161.9</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>274.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>281.5</v>
+      </c>
+      <c r="D70">
+        <v>3464.2</v>
+      </c>
+      <c r="E70">
+        <v>1466.4</v>
+      </c>
+      <c r="F70">
+        <v>1250.3</v>
+      </c>
+      <c r="G70">
+        <v>4559</v>
+      </c>
+      <c r="H70">
+        <v>19097.7</v>
+      </c>
+      <c r="I70">
+        <v>2021</v>
+      </c>
+      <c r="J70">
+        <v>2828.2</v>
+      </c>
+      <c r="K70">
+        <v>5.3</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>4391.5</v>
+      </c>
+      <c r="O70">
+        <v>10792.7</v>
+      </c>
+      <c r="P70">
+        <v>3866.8</v>
+      </c>
+      <c r="Q70">
+        <v>171.8</v>
+      </c>
+      <c r="R70">
+        <v>43099</v>
+      </c>
+      <c r="S70">
+        <v>57765</v>
+      </c>
+      <c r="T70">
+        <v>8305</v>
+      </c>
+      <c r="U70">
+        <v>637.5</v>
+      </c>
+      <c r="V70">
+        <v>715.2</v>
+      </c>
+      <c r="W70">
+        <v>-95</v>
+      </c>
+      <c r="X70">
+        <v>-650.70000000000005</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>281.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>170.6</v>
+      </c>
+      <c r="D71">
+        <v>3209.3</v>
+      </c>
+      <c r="E71">
+        <v>1836.8</v>
+      </c>
+      <c r="F71">
+        <v>1167.4000000000001</v>
+      </c>
+      <c r="G71">
+        <v>5077.8999999999996</v>
+      </c>
+      <c r="H71">
+        <v>19683.2</v>
+      </c>
+      <c r="I71">
+        <v>2172.6999999999998</v>
+      </c>
+      <c r="J71">
+        <v>2827.6</v>
+      </c>
+      <c r="K71">
+        <v>399.3</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>4810.2</v>
+      </c>
+      <c r="O71">
+        <v>11241.4</v>
+      </c>
+      <c r="P71">
+        <v>4245.2</v>
+      </c>
+      <c r="Q71">
+        <v>-231.9</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>8441.7999999999993</v>
+      </c>
+      <c r="U71">
+        <v>405.6</v>
+      </c>
+      <c r="V71">
+        <v>-349.4</v>
+      </c>
+      <c r="W71">
+        <v>-94.9</v>
+      </c>
+      <c r="X71">
+        <v>215.9</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-4</v>
+      </c>
+      <c r="AA71">
+        <v>170.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="D72">
+        <v>3643.6</v>
+      </c>
+      <c r="E72">
+        <v>2007.7</v>
+      </c>
+      <c r="F72">
+        <v>1295.9000000000001</v>
+      </c>
+      <c r="G72">
+        <v>5322.6</v>
+      </c>
+      <c r="H72">
+        <v>20179.599999999999</v>
+      </c>
+      <c r="I72">
+        <v>2288.5</v>
+      </c>
+      <c r="J72">
+        <v>2831.2</v>
+      </c>
+      <c r="K72">
+        <v>1101.5</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>5638.9</v>
+      </c>
+      <c r="O72">
+        <v>11991.8</v>
+      </c>
+      <c r="P72">
+        <v>4945.5</v>
+      </c>
+      <c r="Q72">
+        <v>-19.8</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8187.8</v>
+      </c>
+      <c r="U72">
+        <v>385.8</v>
+      </c>
+      <c r="V72">
+        <v>198</v>
+      </c>
+      <c r="W72">
+        <v>-94.2</v>
+      </c>
+      <c r="X72">
+        <v>457.5</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-6.3</v>
+      </c>
+      <c r="AA72">
+        <v>293.60000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>247.8</v>
+      </c>
+      <c r="D73">
+        <v>3494.8</v>
+      </c>
+      <c r="E73">
+        <v>2079.6999999999998</v>
+      </c>
+      <c r="F73">
+        <v>1241.7</v>
+      </c>
+      <c r="G73">
+        <v>5555.4</v>
+      </c>
+      <c r="H73">
+        <v>20447.7</v>
+      </c>
+      <c r="I73">
+        <v>2320.1999999999998</v>
+      </c>
+      <c r="J73">
+        <v>2830.6</v>
+      </c>
+      <c r="K73">
+        <v>1408.1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>6052</v>
+      </c>
+      <c r="O73">
+        <v>12362.6</v>
+      </c>
+      <c r="P73">
+        <v>5243</v>
+      </c>
+      <c r="Q73">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>8085.1</v>
+      </c>
+      <c r="U73">
+        <v>368.7</v>
+      </c>
+      <c r="V73">
+        <v>191.5</v>
+      </c>
+      <c r="W73">
+        <v>-97.4</v>
+      </c>
+      <c r="X73">
+        <v>-97.6</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-5.8</v>
+      </c>
+      <c r="AA73">
+        <v>247.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43463</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-106.8</v>
+      </c>
+      <c r="D74">
+        <v>3634.7</v>
+      </c>
+      <c r="E74">
+        <v>1485.1</v>
+      </c>
+      <c r="F74">
+        <v>1211.8</v>
+      </c>
+      <c r="G74">
+        <v>4569.3999999999996</v>
+      </c>
+      <c r="H74">
+        <v>19408</v>
+      </c>
+      <c r="I74">
+        <v>2233.1999999999998</v>
+      </c>
+      <c r="J74">
+        <v>3819.8</v>
+      </c>
+      <c r="K74">
+        <v>376.1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>4001.6</v>
+      </c>
+      <c r="O74">
+        <v>11568.1</v>
+      </c>
+      <c r="P74">
+        <v>4198.3999999999996</v>
+      </c>
+      <c r="Q74">
+        <v>-57.3</v>
+      </c>
+      <c r="R74">
+        <v>43463</v>
+      </c>
+      <c r="S74">
+        <v>60767</v>
+      </c>
+      <c r="T74">
+        <v>7839.9</v>
+      </c>
+      <c r="U74">
+        <v>288.7</v>
+      </c>
+      <c r="V74">
+        <v>1220.8</v>
+      </c>
+      <c r="W74">
+        <v>-98.4</v>
+      </c>
+      <c r="X74">
+        <v>-1137.4000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-5.6</v>
+      </c>
+      <c r="AA74">
+        <v>-106.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>169.9</v>
+      </c>
+      <c r="D75">
+        <v>3333.6</v>
+      </c>
+      <c r="E75">
+        <v>1735.6</v>
+      </c>
+      <c r="F75">
+        <v>1112</v>
+      </c>
+      <c r="G75">
+        <v>5253.9</v>
+      </c>
+      <c r="H75">
+        <v>21460.3</v>
+      </c>
+      <c r="I75">
+        <v>2264.3000000000002</v>
+      </c>
+      <c r="J75">
+        <v>3919.3</v>
+      </c>
+      <c r="K75">
+        <v>1780.7</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-400</v>
+      </c>
+      <c r="N75">
+        <v>5766.2</v>
+      </c>
+      <c r="O75">
+        <v>13523.6</v>
+      </c>
+      <c r="P75">
+        <v>6198.1</v>
+      </c>
+      <c r="Q75">
+        <v>-25.6</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>7936.7</v>
+      </c>
+      <c r="U75">
+        <v>281.8</v>
+      </c>
+      <c r="V75">
+        <v>-431.3</v>
+      </c>
+      <c r="W75">
+        <v>-97.6</v>
+      </c>
+      <c r="X75">
+        <v>1408.2</v>
+      </c>
+      <c r="Y75">
+        <v>495</v>
+      </c>
+      <c r="Z75">
+        <v>-245.4</v>
+      </c>
+      <c r="AA75">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>356.3</v>
+      </c>
+      <c r="D76">
+        <v>3761.3</v>
+      </c>
+      <c r="E76">
+        <v>1664</v>
+      </c>
+      <c r="F76">
+        <v>1310.5</v>
+      </c>
+      <c r="G76">
+        <v>5345.2</v>
+      </c>
+      <c r="H76">
+        <v>21523.599999999999</v>
+      </c>
+      <c r="I76">
+        <v>2323.8000000000002</v>
+      </c>
+      <c r="J76">
+        <v>3937.5</v>
+      </c>
+      <c r="K76">
+        <v>1461.6</v>
+      </c>
+      <c r="L76">
+        <v>-330.6</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>5653.1</v>
+      </c>
+      <c r="O76">
+        <v>13290.3</v>
+      </c>
+      <c r="P76">
+        <v>5893.2</v>
+      </c>
+      <c r="Q76">
+        <v>39.1</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>8233.2999999999993</v>
+      </c>
+      <c r="U76">
+        <v>310.7</v>
+      </c>
+      <c r="V76">
+        <v>501</v>
+      </c>
+      <c r="W76">
+        <v>-97.7</v>
+      </c>
+      <c r="X76">
+        <v>-429.9</v>
+      </c>
+      <c r="Y76">
+        <v>491</v>
+      </c>
+      <c r="Z76">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="AA76">
+        <v>356.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>230.5</v>
+      </c>
+      <c r="D77">
+        <v>3633.1</v>
+      </c>
+      <c r="E77">
+        <v>1740.8</v>
+      </c>
+      <c r="F77">
+        <v>1244.8</v>
+      </c>
+      <c r="G77">
+        <v>5328</v>
+      </c>
+      <c r="H77">
+        <v>21322.5</v>
+      </c>
+      <c r="I77">
+        <v>2070.3000000000002</v>
+      </c>
+      <c r="J77">
+        <v>3968.5</v>
+      </c>
+      <c r="K77">
+        <v>1454.9</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>5441.9</v>
+      </c>
+      <c r="O77">
+        <v>13054.3</v>
+      </c>
+      <c r="P77">
+        <v>5911.5</v>
+      </c>
+      <c r="Q77">
+        <v>-0.5</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>8268.2000000000007</v>
+      </c>
+      <c r="U77">
+        <v>311.7</v>
+      </c>
+      <c r="V77">
+        <v>192.7</v>
+      </c>
+      <c r="W77">
+        <v>-102.3</v>
+      </c>
+      <c r="X77">
+        <v>-67.400000000000006</v>
+      </c>
+      <c r="Y77">
+        <v>447.5</v>
+      </c>
+      <c r="Z77">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AA77">
+        <v>230.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>199.1</v>
+      </c>
+      <c r="D78">
+        <v>3714.2</v>
+      </c>
+      <c r="E78">
+        <v>1328.3</v>
+      </c>
+      <c r="F78">
+        <v>1177.9000000000001</v>
+      </c>
+      <c r="G78">
+        <v>4456.6000000000004</v>
+      </c>
+      <c r="H78">
+        <v>20596.599999999999</v>
+      </c>
+      <c r="I78">
+        <v>2087.8000000000002</v>
+      </c>
+      <c r="J78">
+        <v>3216.9</v>
+      </c>
+      <c r="K78">
+        <v>337.3</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4405.7</v>
+      </c>
+      <c r="O78">
+        <v>11454.4</v>
+      </c>
+      <c r="P78">
+        <v>3698.6</v>
+      </c>
+      <c r="Q78">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="R78">
+        <v>43827</v>
+      </c>
+      <c r="S78">
+        <v>59438</v>
+      </c>
+      <c r="T78">
+        <v>9142.2000000000007</v>
+      </c>
+      <c r="U78">
+        <v>297.7</v>
+      </c>
+      <c r="V78">
+        <v>1243.3</v>
+      </c>
+      <c r="W78">
+        <v>-104.4</v>
+      </c>
+      <c r="X78">
+        <v>-1203.4000000000001</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>-2</v>
+      </c>
+      <c r="AA78">
+        <v>199.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="D79">
+        <v>3129.4</v>
+      </c>
+      <c r="E79">
+        <v>1543.5</v>
+      </c>
+      <c r="F79">
+        <v>1032.2</v>
+      </c>
+      <c r="G79">
+        <v>5692.9</v>
+      </c>
+      <c r="H79">
+        <v>22905</v>
+      </c>
+      <c r="I79">
+        <v>2029.2</v>
+      </c>
+      <c r="J79">
+        <v>4781.5</v>
+      </c>
+      <c r="K79">
+        <v>1674</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>5370.3</v>
+      </c>
+      <c r="O79">
+        <v>13945.8</v>
+      </c>
+      <c r="P79">
+        <v>6981.8</v>
+      </c>
+      <c r="Q79">
+        <v>683.7</v>
+      </c>
+      <c r="R79">
+        <v>43918</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>8959.2000000000007</v>
+      </c>
+      <c r="U79">
+        <v>987.1</v>
+      </c>
+      <c r="V79">
+        <v>-405.2</v>
+      </c>
+      <c r="W79">
+        <v>-105.6</v>
+      </c>
+      <c r="X79">
+        <v>2475.1999999999998</v>
+      </c>
+      <c r="Y79">
+        <v>415</v>
+      </c>
+      <c r="Z79">
+        <v>-6.5</v>
+      </c>
+      <c r="AA79">
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>238.4</v>
+      </c>
+      <c r="D80">
+        <v>3147.4</v>
+      </c>
+      <c r="E80">
+        <v>1571.3</v>
+      </c>
+      <c r="F80">
+        <v>1055.3</v>
+      </c>
+      <c r="G80">
+        <v>5769.5</v>
+      </c>
+      <c r="H80">
+        <v>22984.400000000001</v>
+      </c>
+      <c r="I80">
+        <v>2117.4</v>
+      </c>
+      <c r="J80">
+        <v>4772.7</v>
+      </c>
+      <c r="K80">
+        <v>703.1</v>
+      </c>
+      <c r="L80">
+        <v>-980.8</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4578.3</v>
+      </c>
+      <c r="O80">
+        <v>13018.8</v>
+      </c>
+      <c r="P80">
+        <v>5995.9</v>
+      </c>
+      <c r="Q80">
+        <v>-121.7</v>
+      </c>
+      <c r="R80">
+        <v>44009</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>9965.6</v>
+      </c>
+      <c r="U80">
+        <v>859.8</v>
+      </c>
+      <c r="V80">
+        <v>328.2</v>
+      </c>
+      <c r="W80">
+        <v>-105.8</v>
+      </c>
+      <c r="X80">
+        <v>-391.5</v>
+      </c>
+      <c r="Y80">
+        <v>443.3</v>
+      </c>
+      <c r="Z80">
+        <v>-7.1</v>
+      </c>
+      <c r="AA80">
+        <v>238.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>394.9</v>
+      </c>
+      <c r="D81">
+        <v>3850.2</v>
+      </c>
+      <c r="E81">
+        <v>1611.8</v>
+      </c>
+      <c r="F81">
+        <v>1383.3</v>
+      </c>
+      <c r="G81">
+        <v>5787</v>
+      </c>
+      <c r="H81">
+        <v>23040.9</v>
+      </c>
+      <c r="I81">
+        <v>2345.3000000000002</v>
+      </c>
+      <c r="J81">
+        <v>4770.6000000000004</v>
+      </c>
+      <c r="K81">
+        <v>3.2</v>
+      </c>
+      <c r="L81">
+        <v>-712.9</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>4221.8</v>
+      </c>
+      <c r="O81">
+        <v>12661.6</v>
+      </c>
+      <c r="P81">
+        <v>5303.3</v>
+      </c>
+      <c r="Q81">
+        <v>-180.5</v>
+      </c>
+      <c r="R81">
+        <v>44100</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>10379.299999999999</v>
+      </c>
+      <c r="U81">
+        <v>683</v>
+      </c>
+      <c r="V81">
+        <v>677.2</v>
+      </c>
+      <c r="W81">
+        <v>-119</v>
+      </c>
+      <c r="X81">
+        <v>-810.2</v>
+      </c>
+      <c r="Y81">
+        <v>488.9</v>
+      </c>
+      <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
+        <v>394.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>467.3</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>4407.6000000000004</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1360.7</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1568.3</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>6036</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>23566.3</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>2446.4</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>4245.3999999999996</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>1.5</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>4558.3</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>12499.9</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4872.2</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>702.2</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44198</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>53100</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>11066.4</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1381</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1421.9</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-120.2</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-657.6</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>395.6</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>467.3</v>
       </c>
     </row>
